--- a/EMSC Stats Test 4.xlsx
+++ b/EMSC Stats Test 4.xlsx
@@ -398,23 +398,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:W141"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" customWidth="1" width="8"/>
-    <col min="2" max="2" customWidth="1" width="9"/>
+    <col min="2" max="2" customWidth="1" width="10"/>
     <col min="3" max="3" customWidth="1" width="23"/>
-    <col min="4" max="4" customWidth="1" width="23"/>
-    <col min="5" max="5" customWidth="1" width="29"/>
+    <col min="4" max="4" customWidth="1" width="41"/>
+    <col min="5" max="5" customWidth="1" width="33"/>
     <col min="6" max="6" customWidth="1" width="3"/>
     <col min="7" max="7" customWidth="1" width="12"/>
     <col min="8" max="8" customWidth="1" width="12"/>
-    <col min="9" max="9" customWidth="1" width="11"/>
+    <col min="9" max="9" customWidth="1" width="13"/>
     <col min="10" max="10" customWidth="1" width="11"/>
-    <col min="11" max="11" customWidth="1" width="27"/>
-    <col min="12" max="12" customWidth="1" width="24"/>
+    <col min="11" max="11" customWidth="1" width="28"/>
+    <col min="12" max="12" customWidth="1" width="27"/>
     <col min="13" max="13" customWidth="1" width="11"/>
     <col min="14" max="14" customWidth="1" width="11"/>
     <col min="15" max="15" customWidth="1" width="13"/>
@@ -422,8 +422,10 @@
     <col min="17" max="17" customWidth="1" width="12"/>
     <col min="18" max="18" customWidth="1" width="25"/>
     <col min="19" max="19" customWidth="1" width="24"/>
-    <col min="20" max="20" customWidth="1" width="18"/>
-    <col min="21" max="21" customWidth="1" width="17"/>
+    <col min="20" max="20" customWidth="1" width="12"/>
+    <col min="21" max="21" customWidth="1" width="11"/>
+    <col min="22" max="22" customWidth="1" width="18"/>
+    <col min="23" max="23" customWidth="1" width="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -485,27 +487,33 @@
         <v>Num Of Indiv Votes Semi</v>
       </c>
       <c r="T1" t="str">
+        <v>Is Dq Final</v>
+      </c>
+      <c r="U1" t="str">
+        <v>Is Dq Semi</v>
+      </c>
+      <c r="V1" t="str">
         <v>Final Points From</v>
       </c>
-      <c r="U1" t="str">
+      <c r="W1" t="str">
         <v>Semi Points From</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C2" t="str">
-        <v>San Marino</v>
+        <v>Ireland</v>
       </c>
       <c r="D2" t="str">
-        <v>Annalisa</v>
+        <v>Moncrieff</v>
       </c>
       <c r="E2" t="str">
-        <v>Ragazza sola</v>
+        <v>Perfect</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -514,57 +522,63 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="K2" t="str">
-        <v>Jesus Santamaria Rodriguez</v>
+        <v>Keiron Lynch</v>
       </c>
       <c r="L2" t="str">
-        <v>Jesus</v>
+        <v>Keiron</v>
       </c>
       <c r="M2">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="N2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O2">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="P2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Q2" t="b">
         <v>1</v>
       </c>
       <c r="R2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="S2">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C3" t="str">
-        <v>United Kingdom</v>
+        <v>Finland</v>
       </c>
       <c r="D3" t="str">
-        <v>James TW</v>
+        <v>Erika Vikman</v>
       </c>
       <c r="E3" t="str">
-        <v>Hopeless romantics</v>
+        <v>Syntisten pöytä</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -573,116 +587,128 @@
         <v>2</v>
       </c>
       <c r="H3">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K3" t="str">
-        <v>Christian Sandmann</v>
+        <v>Hendrik Wolff</v>
       </c>
       <c r="L3" t="str">
-        <v>Christian S.</v>
+        <v>Hendrik</v>
       </c>
       <c r="M3">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="N3">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="O3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q3" t="b">
         <v>1</v>
       </c>
       <c r="R3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S3">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C4" t="str">
-        <v>Spain</v>
+        <v>San Marino</v>
       </c>
       <c r="D4" t="str">
-        <v>Agoney</v>
+        <v>La Rappresentante di Lista</v>
       </c>
       <c r="E4" t="str">
-        <v>¿Quién Pide Al Cielo Por Ti?</v>
+        <v>Diva</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="K4" t="str">
-        <v>Richard Triendl</v>
+        <v>Paolo Bortoli</v>
       </c>
       <c r="L4" t="str">
-        <v>Richard T</v>
+        <v>Paolo</v>
       </c>
       <c r="M4">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="N4">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="O4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="b">
         <v>1</v>
       </c>
       <c r="R4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S4">
         <v>14</v>
       </c>
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C5" t="str">
-        <v>France</v>
+        <v>Luxembourg</v>
       </c>
       <c r="D5" t="str">
-        <v>Clara Luciani</v>
+        <v>Marghe</v>
       </c>
       <c r="E5" t="str">
-        <v>Respire encore</v>
+        <v>Au bout du monde</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -691,57 +717,63 @@
         <v>4</v>
       </c>
       <c r="H5">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>90</v>
+      </c>
+      <c r="K5" t="str">
+        <v>FabioMassimo Falchi</v>
+      </c>
+      <c r="L5" t="str">
+        <v>FabioMassimo</v>
+      </c>
+      <c r="M5">
+        <v>86</v>
+      </c>
+      <c r="N5">
+        <v>22</v>
+      </c>
+      <c r="O5">
+        <v>15</v>
+      </c>
+      <c r="P5">
         <v>2</v>
       </c>
-      <c r="J5">
-        <v>86</v>
-      </c>
-      <c r="K5" t="str">
-        <v>Mile Gojcevic</v>
-      </c>
-      <c r="L5" t="str">
-        <v>Mile</v>
-      </c>
-      <c r="M5">
-        <v>80</v>
-      </c>
-      <c r="N5">
-        <v>39</v>
-      </c>
-      <c r="O5">
-        <v>9</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
       <c r="Q5" t="b">
         <v>1</v>
       </c>
       <c r="R5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S5">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C6" t="str">
-        <v>Australia</v>
+        <v>Israel</v>
       </c>
       <c r="D6" t="str">
-        <v>Delta Goodrem</v>
+        <v>Narkis</v>
       </c>
       <c r="E6" t="str">
-        <v>Back to your heart</v>
+        <v>נרקיס - מלכה</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -750,149 +782,161 @@
         <v>5</v>
       </c>
       <c r="H6">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I6">
         <v>4</v>
       </c>
       <c r="J6">
+        <v>64</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Argiris Maniotas</v>
+      </c>
+      <c r="L6" t="str">
+        <v>Argiris</v>
+      </c>
+      <c r="M6">
         <v>84</v>
       </c>
-      <c r="K6" t="str">
-        <v>Sven Gessinger</v>
-      </c>
-      <c r="L6" t="str">
-        <v>Sven G.</v>
-      </c>
-      <c r="M6">
-        <v>99</v>
-      </c>
       <c r="N6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="O6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="b">
         <v>1</v>
       </c>
       <c r="R6">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="S6">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C7" t="str">
-        <v>Albania</v>
+        <v>Germany</v>
       </c>
       <c r="D7" t="str">
-        <v>Mimoza</v>
+        <v>M-22 &amp; Ella Henderson</v>
       </c>
       <c r="E7" t="str">
-        <v>Young queen</v>
+        <v>Heartstrings</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
       <c r="H7">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J7">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="K7" t="str">
-        <v>Rui Reis</v>
+        <v>Sven Gessinger</v>
       </c>
       <c r="L7" t="str">
-        <v>Rui Reis</v>
+        <v>Sven G.</v>
       </c>
       <c r="M7">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="N7">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="O7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Q7" t="b">
         <v>1</v>
       </c>
       <c r="R7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S7">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C8" t="str">
-        <v>Norway</v>
+        <v>Poland</v>
       </c>
       <c r="D8" t="str">
-        <v>Moyka</v>
+        <v>Ania Karwan</v>
       </c>
       <c r="E8" t="str">
-        <v>Rear view</v>
+        <v>Glupcy</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>7</v>
       </c>
       <c r="H8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J8">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="K8" t="str">
-        <v>Paolo Bortoli</v>
+        <v>Christian Sandmann</v>
       </c>
       <c r="L8" t="str">
-        <v>Paolo Bortoli</v>
+        <v>Christian S.</v>
       </c>
       <c r="M8">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="N8">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="O8">
         <v>13</v>
       </c>
       <c r="P8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="b">
         <v>1</v>
@@ -901,24 +945,30 @@
         <v>19</v>
       </c>
       <c r="S8">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C9" t="str">
-        <v>Türkiye</v>
+        <v>United Kingdom</v>
       </c>
       <c r="D9" t="str">
-        <v>Selin</v>
+        <v>Brooke Combe</v>
       </c>
       <c r="E9" t="str">
-        <v>Lovers hurricane</v>
+        <v>Miss me now</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -927,175 +977,193 @@
         <v>8</v>
       </c>
       <c r="H9">
+        <v>96</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
         <v>97</v>
       </c>
-      <c r="I9">
-        <v>12</v>
-      </c>
-      <c r="J9">
-        <v>46</v>
-      </c>
       <c r="K9" t="str">
-        <v>Francesco Perrone</v>
+        <v xml:space="preserve">Adnan Laoudy </v>
       </c>
       <c r="L9" t="str">
-        <v>Francesco Perrone</v>
+        <v>Adnan Laoudy</v>
       </c>
       <c r="M9">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="N9">
+        <v>25</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <v>19</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9">
         <v>18</v>
       </c>
-      <c r="O9">
-        <v>15</v>
-      </c>
-      <c r="P9">
-        <v>22</v>
-      </c>
-      <c r="Q9" t="b">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>16</v>
-      </c>
       <c r="S9">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="T9" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B10" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C10" t="str">
-        <v>Luxembourg</v>
+        <v>Norway</v>
       </c>
       <c r="D10" t="str">
-        <v>Tim Dup</v>
+        <v>Mørland</v>
       </c>
       <c r="E10" t="str">
-        <v>Amor</v>
+        <v>En livredd mann</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>9</v>
       </c>
       <c r="H10">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="K10" t="str">
-        <v>Hendrik Wolff</v>
+        <v>Santi Balderas Blanco</v>
       </c>
       <c r="L10" t="str">
-        <v>Hendrik</v>
+        <v>Santi Balderas Blanco</v>
       </c>
       <c r="M10">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="N10">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O10">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="Q10" t="b">
         <v>1</v>
       </c>
       <c r="R10">
+        <v>14</v>
+      </c>
+      <c r="S10">
         <v>12</v>
       </c>
-      <c r="S10">
-        <v>11</v>
+      <c r="T10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B11" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C11" t="str">
-        <v>Denmark</v>
+        <v>Spain</v>
       </c>
       <c r="D11" t="str">
-        <v>Christopher</v>
+        <v>Sebastián Yatra &amp; Pablo Alboran</v>
       </c>
       <c r="E11" t="str">
-        <v>A beautiful life</v>
+        <v>Contigo</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
       <c r="H11">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J11">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K11" t="str">
-        <v>Martin Carlsholt Unger</v>
+        <v>Michalis Terzis</v>
       </c>
       <c r="L11" t="str">
-        <v>Martin Carlshollt Unger</v>
+        <v>Michael</v>
       </c>
       <c r="M11">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="N11">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="O11">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="P11">
+        <v>6</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>14</v>
+      </c>
+      <c r="S11">
         <v>13</v>
       </c>
-      <c r="Q11" t="b">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>17</v>
-      </c>
-      <c r="S11">
-        <v>15</v>
+      <c r="T11" t="b">
+        <v>0</v>
+      </c>
+      <c r="U11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C12" t="str">
-        <v>Sweden</v>
+        <v>Ukraine</v>
       </c>
       <c r="D12" t="str">
-        <v>Zara Larsson</v>
+        <v>Max Barskih &amp;amp; ETOLUBOV</v>
       </c>
       <c r="E12" t="str">
-        <v>Can't tame her</v>
+        <v>Римую</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1104,116 +1172,128 @@
         <v>11</v>
       </c>
       <c r="H12">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J12">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="K12" t="str">
-        <v>Pavel Todorov</v>
+        <v>Lutz Bleckmann</v>
       </c>
       <c r="L12" t="str">
-        <v>Pavel Todorov</v>
+        <v>Lutz</v>
       </c>
       <c r="M12">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="N12">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P12">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q12" t="b">
         <v>1</v>
       </c>
       <c r="R12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S12">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="T12" t="b">
+        <v>0</v>
+      </c>
+      <c r="U12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C13" t="str">
-        <v>Italy</v>
+        <v>Denmark</v>
       </c>
       <c r="D13" t="str">
-        <v>Marco Mengoni &amp; Elodie</v>
+        <v>Drew Sycamore</v>
       </c>
       <c r="E13" t="str">
-        <v>Pazza musica</v>
+        <v xml:space="preserve"> I wanna be dancing</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>12</v>
       </c>
       <c r="H13">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J13">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="K13" t="str">
-        <v>Argiris Maniotas</v>
+        <v>Martin Carlsholt Unger</v>
       </c>
       <c r="L13" t="str">
-        <v>Argiris</v>
+        <v>Martin Carlshollt Unger</v>
       </c>
       <c r="M13">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="N13">
+        <v>23</v>
+      </c>
+      <c r="O13">
         <v>12</v>
       </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
       <c r="P13">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Q13" t="b">
         <v>1</v>
       </c>
       <c r="R13">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="S13">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="T13" t="b">
+        <v>0</v>
+      </c>
+      <c r="U13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B14" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C14" t="str">
-        <v>Israel</v>
+        <v>Australia</v>
       </c>
       <c r="D14" t="str">
-        <v>Noa Kirel</v>
+        <v>Dean Lewis</v>
       </c>
       <c r="E14" t="str">
-        <v>Deja vu</v>
+        <v>How do I say goodbye</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1222,175 +1302,193 @@
         <v>13</v>
       </c>
       <c r="H14">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="I14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J14">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="K14" t="str">
-        <v>Tomislav Roso</v>
+        <v>Gabriel Yau</v>
       </c>
       <c r="L14" t="str">
-        <v>Tom</v>
+        <v>Gabriel</v>
       </c>
       <c r="M14">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="N14">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q14" t="b">
         <v>1</v>
       </c>
       <c r="R14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S14">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="T14" t="b">
+        <v>0</v>
+      </c>
+      <c r="U14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C15" t="str">
-        <v>Switzerland</v>
+        <v>Malta</v>
       </c>
       <c r="D15" t="str">
-        <v>Stefanie Heinzmann</v>
+        <v>Shaun Farrugia</v>
       </c>
       <c r="E15" t="str">
-        <v>Carry the world</v>
+        <v>Dear god</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>14</v>
       </c>
       <c r="H15">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J15">
         <v>52</v>
       </c>
       <c r="K15" t="str">
-        <v>Santi Balderas Blanco</v>
+        <v>Francesco Perrone</v>
       </c>
       <c r="L15" t="str">
-        <v>Santi Balderas Blanco</v>
+        <v>Francesco Perrone</v>
       </c>
       <c r="M15">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N15">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="O15">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P15">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q15" t="b">
         <v>1</v>
       </c>
       <c r="R15">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="S15">
         <v>9</v>
       </c>
+      <c r="T15" t="b">
+        <v>0</v>
+      </c>
+      <c r="U15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B16" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C16" t="str">
-        <v>Portugal</v>
+        <v>Austria</v>
       </c>
       <c r="D16" t="str">
-        <v>Fernando Daniel</v>
+        <v>Klangkarussell</v>
       </c>
       <c r="E16" t="str">
-        <v>Prometo</v>
+        <v>Home</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16">
         <v>15</v>
       </c>
       <c r="H16">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J16">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="K16" t="str">
-        <v>Mauro Correia</v>
+        <v>Richard Triendl</v>
       </c>
       <c r="L16" t="str">
-        <v>Mauro Correia</v>
+        <v>Richard T</v>
       </c>
       <c r="M16">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="N16">
         <v>11</v>
       </c>
       <c r="O16">
+        <v>9</v>
+      </c>
+      <c r="P16">
+        <v>22</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>12</v>
+      </c>
+      <c r="S16">
         <v>10</v>
       </c>
-      <c r="P16">
-        <v>2</v>
-      </c>
-      <c r="Q16" t="b">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>9</v>
-      </c>
-      <c r="S16">
-        <v>14</v>
+      <c r="T16" t="b">
+        <v>0</v>
+      </c>
+      <c r="U16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B17" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C17" t="str">
         <v>Netherlands</v>
       </c>
       <c r="D17" t="str">
-        <v>Avalan</v>
+        <v>HAEVN</v>
       </c>
       <c r="E17" t="str">
-        <v>World we know</v>
+        <v>Back in the water</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1399,90 +1497,96 @@
         <v>16</v>
       </c>
       <c r="H17">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="I17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J17">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K17" t="str">
-        <v>Joaquin Montesinos</v>
+        <v>Rui Reis</v>
       </c>
       <c r="L17" t="str">
-        <v>Joaquin Montesinos</v>
+        <v>Rui</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="N17">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O17">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="P17">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="Q17" t="b">
         <v>1</v>
       </c>
       <c r="R17">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="S17">
         <v>12</v>
       </c>
+      <c r="T17" t="b">
+        <v>0</v>
+      </c>
+      <c r="U17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B18" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C18" t="str">
-        <v>Monaco</v>
+        <v>Sweden</v>
       </c>
       <c r="D18" t="str">
-        <v>Roulez Jeunesse</v>
+        <v>Jon Henrik Fjällgren</v>
       </c>
       <c r="E18" t="str">
-        <v>Dis le moi quand même</v>
+        <v>Mountain dance</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>17</v>
       </c>
       <c r="H18">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="I18">
+        <v>7</v>
+      </c>
+      <c r="J18">
+        <v>61</v>
+      </c>
+      <c r="K18" t="str">
+        <v>Stefan Schneider</v>
+      </c>
+      <c r="L18" t="str">
+        <v>Stefan Schneider</v>
+      </c>
+      <c r="M18">
+        <v>61</v>
+      </c>
+      <c r="N18">
         <v>12</v>
       </c>
-      <c r="J18">
-        <v>47</v>
-      </c>
-      <c r="K18" t="str">
-        <v>Paul Didden</v>
-      </c>
-      <c r="L18" t="str">
-        <v>Paul Didden</v>
-      </c>
-      <c r="M18">
-        <v>47</v>
-      </c>
-      <c r="N18">
+      <c r="O18">
+        <v>11</v>
+      </c>
+      <c r="P18">
         <v>3</v>
-      </c>
-      <c r="O18">
-        <v>7</v>
-      </c>
-      <c r="P18">
-        <v>18</v>
       </c>
       <c r="Q18" t="b">
         <v>1</v>
@@ -1491,24 +1595,30 @@
         <v>11</v>
       </c>
       <c r="S18">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="T18" t="b">
+        <v>0</v>
+      </c>
+      <c r="U18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B19" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C19" t="str">
-        <v>Russia</v>
+        <v>Monaco</v>
       </c>
       <c r="D19" t="str">
-        <v>Anastasia Ukolova</v>
+        <v>Mennel</v>
       </c>
       <c r="E19" t="str">
-        <v>Ty zabudesh</v>
+        <v>Je pars mais je t'aime</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1517,116 +1627,128 @@
         <v>18</v>
       </c>
       <c r="H19">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="I19">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J19">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="K19" t="str">
-        <v>??? Jonathan Zuñiga</v>
+        <v>Joaquin Montesinos</v>
       </c>
       <c r="L19" t="str">
-        <v>Jonathan Zuñiga</v>
+        <v>Joaquin Montesinos</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N19">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="O19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P19">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="Q19" t="b">
         <v>1</v>
       </c>
       <c r="R19">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S19">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="T19" t="b">
+        <v>0</v>
+      </c>
+      <c r="U19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B20" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C20" t="str">
-        <v>Cyprus</v>
+        <v>France</v>
       </c>
       <c r="D20" t="str">
-        <v>Eleni Foureira</v>
+        <v>Linh</v>
       </c>
       <c r="E20" t="str">
-        <v>Kolima</v>
-      </c>
-      <c r="F20" t="str">
-        <v>F</v>
+        <v>Boum</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
       </c>
       <c r="G20">
         <v>19</v>
       </c>
       <c r="H20">
-        <v>48</v>
-      </c>
-      <c r="I20" t="str">
-        <v/>
-      </c>
-      <c r="J20" t="str">
-        <v/>
+        <v>65</v>
+      </c>
+      <c r="I20">
+        <v>9</v>
+      </c>
+      <c r="J20">
+        <v>53</v>
       </c>
       <c r="K20" t="str">
-        <v>Michalis Terzis</v>
+        <v>??? Luís Coelho</v>
       </c>
       <c r="L20" t="str">
-        <v>Michael</v>
+        <v>Luís Coelho</v>
       </c>
       <c r="M20">
         <v>43</v>
       </c>
       <c r="N20">
-        <v>5</v>
-      </c>
-      <c r="O20" t="str">
-        <v/>
+        <v>22</v>
+      </c>
+      <c r="O20">
+        <v>10</v>
       </c>
       <c r="P20">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q20" t="b">
         <v>1</v>
       </c>
       <c r="R20">
-        <v>9</v>
-      </c>
-      <c r="S20" t="str">
-        <v/>
+        <v>11</v>
+      </c>
+      <c r="S20">
+        <v>16</v>
+      </c>
+      <c r="T20" t="b">
+        <v>0</v>
+      </c>
+      <c r="U20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B21" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C21" t="str">
-        <v>Ireland</v>
+        <v>Romania</v>
       </c>
       <c r="D21" t="str">
-        <v>Brooke</v>
+        <v>Ilkay Sencan &amp; Inna</v>
       </c>
       <c r="E21" t="str">
-        <v>Heartbreaker</v>
+        <v>Talk</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1635,146 +1757,158 @@
         <v>20</v>
       </c>
       <c r="H21">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="I21">
         <v>11</v>
       </c>
       <c r="J21">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="K21" t="str">
-        <v>Katrin Born</v>
+        <v>Pavel Todorov</v>
       </c>
       <c r="L21" t="str">
-        <v>Katrin</v>
+        <v>Pavel Todorov</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N21">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Q21" t="b">
         <v>1</v>
       </c>
       <c r="R21">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S21">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="T21" t="b">
+        <v>0</v>
+      </c>
+      <c r="U21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B22" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C22" t="str">
-        <v>Bosnia and Herzegovina</v>
+        <v>Portugal</v>
       </c>
       <c r="D22" t="str">
-        <v>Seka Aleksic</v>
+        <v>Aurea</v>
       </c>
       <c r="E22" t="str">
-        <v>Emotivno nedostupan</v>
+        <v>Done with you</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22">
         <v>21</v>
       </c>
       <c r="H22">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>63</v>
+      </c>
+      <c r="K22" t="str">
+        <v>Mathias Christiansson</v>
+      </c>
+      <c r="L22" t="str">
+        <v>Mathias</v>
+      </c>
+      <c r="M22">
+        <v>38</v>
+      </c>
+      <c r="N22">
+        <v>24</v>
+      </c>
+      <c r="O22">
+        <v>4</v>
+      </c>
+      <c r="P22">
+        <v>21</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>1</v>
+      </c>
+      <c r="R22">
         <v>10</v>
       </c>
-      <c r="J22">
-        <v>54</v>
-      </c>
-      <c r="K22" t="str">
-        <v>Giovanni Affronte</v>
-      </c>
-      <c r="L22" t="str">
-        <v>Giovanni</v>
-      </c>
-      <c r="M22">
-        <v>42</v>
-      </c>
-      <c r="N22">
-        <v>2</v>
-      </c>
-      <c r="O22">
-        <v>11</v>
-      </c>
-      <c r="P22">
-        <v>4</v>
-      </c>
-      <c r="Q22" t="b">
-        <v>1</v>
-      </c>
-      <c r="R22">
-        <v>7</v>
-      </c>
       <c r="S22">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="T22" t="b">
+        <v>0</v>
+      </c>
+      <c r="U22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B23" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C23" t="str">
-        <v>Malta</v>
+        <v>Lithuania</v>
       </c>
       <c r="D23" t="str">
-        <v>Maxine</v>
+        <v>Jovani</v>
       </c>
       <c r="E23" t="str">
-        <v>Pull me closer</v>
+        <v>You make me</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23">
         <v>22</v>
       </c>
       <c r="H23">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="I23">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J23">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K23" t="str">
-        <v>Stefan Schneider</v>
+        <v>Tomislav Roso</v>
       </c>
       <c r="L23" t="str">
-        <v>Stefan Schneider</v>
+        <v>Tomislav</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N23">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="O23">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P23">
         <v>12</v>
@@ -1786,83 +1920,95 @@
         <v>10</v>
       </c>
       <c r="S23">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="T23" t="b">
+        <v>0</v>
+      </c>
+      <c r="U23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B24" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C24" t="str">
-        <v>Germany</v>
+        <v>Italy</v>
       </c>
       <c r="D24" t="str">
-        <v>Giant Rooks</v>
+        <v>Modà</v>
       </c>
       <c r="E24" t="str">
-        <v>Bedroom exile</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
+        <v>Finisce sempre così</v>
+      </c>
+      <c r="F24" t="str">
+        <v>F</v>
       </c>
       <c r="G24">
         <v>23</v>
       </c>
       <c r="H24">
-        <v>33</v>
-      </c>
-      <c r="I24">
-        <v>9</v>
-      </c>
-      <c r="J24">
-        <v>49</v>
+        <v>30</v>
+      </c>
+      <c r="I24" t="str">
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <v/>
       </c>
       <c r="K24" t="str">
-        <v>Lutz Bleckmann</v>
+        <v>Mile Gojcevic</v>
       </c>
       <c r="L24" t="str">
-        <v>Lutz</v>
+        <v>Mile</v>
       </c>
       <c r="M24">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N24">
-        <v>4</v>
-      </c>
-      <c r="O24">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="O24" t="str">
+        <v/>
       </c>
       <c r="P24">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Q24" t="b">
         <v>1</v>
       </c>
       <c r="R24">
-        <v>9</v>
-      </c>
-      <c r="S24">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="S24" t="str">
+        <v/>
+      </c>
+      <c r="T24" t="b">
+        <v>0</v>
+      </c>
+      <c r="U24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B25" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C25" t="str">
-        <v>Morocco</v>
+        <v>Andorra</v>
       </c>
       <c r="D25" t="str">
-        <v>ABIR</v>
+        <v>XEINN ft. ROCKET</v>
       </c>
       <c r="E25" t="str">
-        <v>Yacht</v>
+        <v>Perdiendo el control</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -1871,31 +2017,31 @@
         <v>24</v>
       </c>
       <c r="H25">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I25">
         <v>11</v>
       </c>
       <c r="J25">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K25" t="str">
-        <v>Keiron Lynch</v>
+        <v>Edu Padrós Creus</v>
       </c>
       <c r="L25" t="str">
-        <v>Keiron</v>
+        <v>Edu Padrós Creus</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N25">
         <v>2</v>
       </c>
       <c r="O25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P25">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q25" t="b">
         <v>1</v>
@@ -1904,24 +2050,30 @@
         <v>6</v>
       </c>
       <c r="S25">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="T25" t="b">
+        <v>0</v>
+      </c>
+      <c r="U25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B26" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C26" t="str">
-        <v>Andorra</v>
+        <v/>
       </c>
       <c r="D26" t="str">
-        <v>Manuel Carrasco</v>
+        <v>Myriam Fares</v>
       </c>
       <c r="E26" t="str">
-        <v>Hay que vivir el momento</v>
+        <v>Adiha Enbisat</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1930,57 +2082,63 @@
         <v>25</v>
       </c>
       <c r="H26">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I26">
+        <v>12</v>
+      </c>
+      <c r="J26">
+        <v>34</v>
+      </c>
+      <c r="K26" t="str">
+        <v>Rodrigo Erazo</v>
+      </c>
+      <c r="L26" t="str">
+        <v>Rodrigo Erazo</v>
+      </c>
+      <c r="M26">
+        <v>15</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>3</v>
+      </c>
+      <c r="P26">
+        <v>14</v>
+      </c>
+      <c r="Q26" t="b">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>6</v>
+      </c>
+      <c r="S26">
         <v>7</v>
       </c>
-      <c r="J26">
-        <v>64</v>
-      </c>
-      <c r="K26" t="str">
-        <v>Ricardo Gomes</v>
-      </c>
-      <c r="L26" t="str">
-        <v>Ricardo Gomes</v>
-      </c>
-      <c r="M26">
-        <v>20</v>
-      </c>
-      <c r="N26">
-        <v>3</v>
-      </c>
-      <c r="O26">
-        <v>2</v>
-      </c>
-      <c r="P26">
-        <v>24</v>
-      </c>
-      <c r="Q26" t="b">
-        <v>1</v>
-      </c>
-      <c r="R26">
-        <v>5</v>
-      </c>
-      <c r="S26">
-        <v>11</v>
+      <c r="T26" t="b">
+        <v>0</v>
+      </c>
+      <c r="U26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B27" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C27" t="str">
-        <v>Poland</v>
+        <v>Bulgaria</v>
       </c>
       <c r="D27" t="str">
-        <v>Viki Gabor</v>
+        <v>Zhana Bergendorff</v>
       </c>
       <c r="E27" t="str">
-        <v>Barbie</v>
+        <v>Unpredictable</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1995,13 +2153,13 @@
         <v>13</v>
       </c>
       <c r="J27">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="K27" t="str">
-        <v>Luke Woods</v>
+        <v>Giovanni Affronte</v>
       </c>
       <c r="L27" t="str">
-        <v>Luke</v>
+        <v>Giovanni</v>
       </c>
       <c r="M27" t="str">
         <v/>
@@ -2010,7 +2168,7 @@
         <v/>
       </c>
       <c r="O27">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P27" t="str">
         <v/>
@@ -2022,24 +2180,30 @@
         <v/>
       </c>
       <c r="S27">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="T27" t="b">
+        <v>0</v>
+      </c>
+      <c r="U27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B28" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C28" t="str">
-        <v>Montenegro</v>
+        <v>Croatia</v>
       </c>
       <c r="D28" t="str">
-        <v>Emel</v>
+        <v>The Frajle</v>
       </c>
       <c r="E28" t="str">
-        <v>Gdje je</v>
+        <v>Ako Je Vrijedilo Išta</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2054,13 +2218,13 @@
         <v>14</v>
       </c>
       <c r="J28">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="K28" t="str">
-        <v>Rodrigo Erazo</v>
+        <v>Maurice Dupont</v>
       </c>
       <c r="L28" t="str">
-        <v>Rodrigo  Erazo</v>
+        <v>Maurice</v>
       </c>
       <c r="M28" t="str">
         <v/>
@@ -2069,7 +2233,7 @@
         <v/>
       </c>
       <c r="O28">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P28" t="str">
         <v/>
@@ -2081,24 +2245,30 @@
         <v/>
       </c>
       <c r="S28">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="T28" t="b">
+        <v>0</v>
+      </c>
+      <c r="U28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B29" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C29" t="str">
         <v>Georgia</v>
       </c>
       <c r="D29" t="str">
-        <v>Katie Melua</v>
+        <v>IRU</v>
       </c>
       <c r="E29" t="str">
-        <v>A love like that</v>
+        <v>Idea</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2113,13 +2283,13 @@
         <v>15</v>
       </c>
       <c r="J29">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="K29" t="str">
-        <v>Richard Cox</v>
+        <v>Nijat Badalov</v>
       </c>
       <c r="L29" t="str">
-        <v>Richard Cox</v>
+        <v>Nijat</v>
       </c>
       <c r="M29" t="str">
         <v/>
@@ -2128,36 +2298,42 @@
         <v/>
       </c>
       <c r="O29">
+        <v>14</v>
+      </c>
+      <c r="P29" t="str">
+        <v/>
+      </c>
+      <c r="Q29" t="b">
+        <v>0</v>
+      </c>
+      <c r="R29" t="str">
+        <v/>
+      </c>
+      <c r="S29">
         <v>8</v>
       </c>
-      <c r="P29" t="str">
-        <v/>
-      </c>
-      <c r="Q29" t="b">
-        <v>0</v>
-      </c>
-      <c r="R29" t="str">
-        <v/>
-      </c>
-      <c r="S29">
-        <v>6</v>
+      <c r="T29" t="b">
+        <v>0</v>
+      </c>
+      <c r="U29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B30" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C30" t="str">
-        <v>Ukraine</v>
+        <v>Estonia</v>
       </c>
       <c r="D30" t="str">
-        <v>Ruma</v>
+        <v xml:space="preserve">Hunt </v>
       </c>
       <c r="E30" t="str">
-        <v>Дотик</v>
+        <v>Vabadus</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -2172,13 +2348,13 @@
         <v>16</v>
       </c>
       <c r="J30">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K30" t="str">
-        <v>??? Luís Coelho</v>
+        <v>Paul Didden</v>
       </c>
       <c r="L30" t="str">
-        <v>Luís Coelho</v>
+        <v>Paul Didden</v>
       </c>
       <c r="M30" t="str">
         <v/>
@@ -2187,7 +2363,7 @@
         <v/>
       </c>
       <c r="O30">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="P30" t="str">
         <v/>
@@ -2199,83 +2375,95 @@
         <v/>
       </c>
       <c r="S30">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="T30" t="b">
+        <v>0</v>
+      </c>
+      <c r="U30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B31" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C31" t="str">
-        <v>Estonia</v>
+        <v>Greece</v>
       </c>
       <c r="D31" t="str">
-        <v>Liis Lemsalu</v>
+        <v>Kings &amp; FY &amp; Mc Daddy</v>
       </c>
       <c r="E31" t="str">
-        <v>Kehakeel</v>
+        <v>Macarena</v>
       </c>
       <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="str">
+        <v/>
+      </c>
+      <c r="H31" t="str">
+        <v/>
+      </c>
+      <c r="I31">
+        <v>17</v>
+      </c>
+      <c r="J31">
+        <v>7</v>
+      </c>
+      <c r="K31" t="str">
+        <v>Phil Bailey</v>
+      </c>
+      <c r="L31" t="str">
+        <v>Phil Bailey</v>
+      </c>
+      <c r="M31" t="str">
+        <v/>
+      </c>
+      <c r="N31" t="str">
+        <v/>
+      </c>
+      <c r="O31">
+        <v>17</v>
+      </c>
+      <c r="P31" t="str">
+        <v/>
+      </c>
+      <c r="Q31" t="b">
+        <v>0</v>
+      </c>
+      <c r="R31" t="str">
+        <v/>
+      </c>
+      <c r="S31">
         <v>2</v>
       </c>
-      <c r="G31" t="str">
-        <v/>
-      </c>
-      <c r="H31" t="str">
-        <v/>
-      </c>
-      <c r="I31">
-        <v>13</v>
-      </c>
-      <c r="J31">
-        <v>40</v>
-      </c>
-      <c r="K31" t="str">
-        <v>Mathias Christiansson</v>
-      </c>
-      <c r="L31" t="str">
-        <v>Mathias</v>
-      </c>
-      <c r="M31" t="str">
-        <v/>
-      </c>
-      <c r="N31" t="str">
-        <v/>
-      </c>
-      <c r="O31">
-        <v>2</v>
-      </c>
-      <c r="P31" t="str">
-        <v/>
-      </c>
-      <c r="Q31" t="b">
-        <v>0</v>
-      </c>
-      <c r="R31" t="str">
-        <v/>
-      </c>
-      <c r="S31">
-        <v>8</v>
+      <c r="T31" t="b">
+        <v>0</v>
+      </c>
+      <c r="U31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B32" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C32" t="str">
-        <v>Romania</v>
+        <v>Azerbaijan</v>
       </c>
       <c r="D32" t="str">
-        <v>WRS</v>
+        <v>Elvin Babazade</v>
       </c>
       <c r="E32" t="str">
-        <v>Dale</v>
+        <v>Neyi var</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -2287,16 +2475,16 @@
         <v/>
       </c>
       <c r="I32">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J32">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="K32" t="str">
-        <v>Edu Padrós Creus</v>
+        <v>Ricardo Gomes</v>
       </c>
       <c r="L32" t="str">
-        <v>Edu Padrós Creus</v>
+        <v>Ricardo Gomes</v>
       </c>
       <c r="M32" t="str">
         <v/>
@@ -2305,7 +2493,7 @@
         <v/>
       </c>
       <c r="O32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P32" t="str">
         <v/>
@@ -2317,24 +2505,30 @@
         <v/>
       </c>
       <c r="S32">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="T32" t="b">
+        <v>0</v>
+      </c>
+      <c r="U32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B33" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C33" t="str">
-        <v>Moldova</v>
+        <v>Belgium</v>
       </c>
       <c r="D33" t="str">
-        <v>Vanotek &amp; Eneli</v>
+        <v>Milow</v>
       </c>
       <c r="E33" t="str">
-        <v>Back to me</v>
+        <v>How love works</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -2346,16 +2540,16 @@
         <v/>
       </c>
       <c r="I33">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J33">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K33" t="str">
-        <v>FabioMassimo Falchi</v>
+        <v>Katrin Born</v>
       </c>
       <c r="L33" t="str">
-        <v>FabioMassimo</v>
+        <v>Katrin</v>
       </c>
       <c r="M33" t="str">
         <v/>
@@ -2364,7 +2558,7 @@
         <v/>
       </c>
       <c r="O33">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P33" t="str">
         <v/>
@@ -2376,24 +2570,30 @@
         <v/>
       </c>
       <c r="S33">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="T33" t="b">
+        <v>0</v>
+      </c>
+      <c r="U33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B34" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C34" t="str">
-        <v>Azerbaijan</v>
+        <v>Cyprus</v>
       </c>
       <c r="D34" t="str">
-        <v>Röya &amp; Nicat Rəhimov</v>
+        <v>Michalis Hatzigiannis</v>
       </c>
       <c r="E34" t="str">
-        <v>Dəli kimi</v>
+        <v>Horevo</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -2405,16 +2605,16 @@
         <v/>
       </c>
       <c r="I34">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J34">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K34" t="str">
-        <v>Nijat Badalov</v>
+        <v>Mauro Correia</v>
       </c>
       <c r="L34" t="str">
-        <v>Nijat</v>
+        <v>Mauro Correia</v>
       </c>
       <c r="M34" t="str">
         <v/>
@@ -2423,7 +2623,7 @@
         <v/>
       </c>
       <c r="O34">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="P34" t="str">
         <v/>
@@ -2435,24 +2635,30 @@
         <v/>
       </c>
       <c r="S34">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="T34" t="b">
+        <v>0</v>
+      </c>
+      <c r="U34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B35" t="str">
-        <v>EMSC2304</v>
+        <v>EMSC 2301</v>
       </c>
       <c r="C35" t="str">
-        <v>Greece</v>
+        <v>Türkiye</v>
       </c>
       <c r="D35" t="str">
-        <v>ZAF</v>
+        <v>Aleyna Tilki</v>
       </c>
       <c r="E35" t="str">
-        <v>Pes</v>
+        <v>Retrograde</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -2464,42 +2670,6938 @@
         <v/>
       </c>
       <c r="I35">
+        <v>16</v>
+      </c>
+      <c r="J35">
+        <v>36</v>
+      </c>
+      <c r="K35" t="str">
+        <v>Richard Cox</v>
+      </c>
+      <c r="L35" t="str">
+        <v>Richard Cox</v>
+      </c>
+      <c r="M35" t="str">
+        <v/>
+      </c>
+      <c r="N35" t="str">
+        <v/>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35" t="str">
+        <v/>
+      </c>
+      <c r="Q35" t="b">
+        <v>0</v>
+      </c>
+      <c r="R35" t="str">
+        <v/>
+      </c>
+      <c r="S35">
+        <v>7</v>
+      </c>
+      <c r="T35" t="b">
+        <v>0</v>
+      </c>
+      <c r="U35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>11</v>
+      </c>
+      <c r="B36" t="str">
+        <v>EMSC 2301</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Albania</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Ermal Meta</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Uno</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="str">
+        <v/>
+      </c>
+      <c r="H36" t="str">
+        <v/>
+      </c>
+      <c r="I36">
         <v>17</v>
       </c>
-      <c r="J35">
+      <c r="J36">
+        <v>16</v>
+      </c>
+      <c r="K36" t="str">
+        <v>Jesus Santamaria Rodriguez</v>
+      </c>
+      <c r="L36" t="str">
+        <v>Jesus Santamaria Rodriguez</v>
+      </c>
+      <c r="M36" t="str">
+        <v/>
+      </c>
+      <c r="N36" t="str">
+        <v/>
+      </c>
+      <c r="O36">
+        <v>3</v>
+      </c>
+      <c r="P36" t="str">
+        <v/>
+      </c>
+      <c r="Q36" t="b">
+        <v>0</v>
+      </c>
+      <c r="R36" t="str">
+        <v/>
+      </c>
+      <c r="S36">
+        <v>8</v>
+      </c>
+      <c r="T36" t="b">
+        <v>0</v>
+      </c>
+      <c r="U36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>12</v>
+      </c>
+      <c r="B37" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Denmark</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Julie &amp; Nina</v>
+      </c>
+      <c r="E37" t="str">
+        <v>League of light</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>134</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>88</v>
+      </c>
+      <c r="K37" t="str">
+        <v>Santi Balderas Blanco</v>
+      </c>
+      <c r="L37" t="str">
+        <v>Santi Balderas Blanco</v>
+      </c>
+      <c r="M37">
+        <v>98</v>
+      </c>
+      <c r="N37">
+        <v>36</v>
+      </c>
+      <c r="O37">
+        <v>6</v>
+      </c>
+      <c r="P37">
+        <v>12</v>
+      </c>
+      <c r="Q37" t="b">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>19</v>
+      </c>
+      <c r="S37">
+        <v>12</v>
+      </c>
+      <c r="T37" t="b">
+        <v>0</v>
+      </c>
+      <c r="U37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>12</v>
+      </c>
+      <c r="B38" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Sweden</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Winona Oak</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Baby blue</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>123</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+      <c r="J38">
+        <v>57</v>
+      </c>
+      <c r="K38" t="str">
+        <v>Lutz Bleckmann</v>
+      </c>
+      <c r="L38" t="str">
+        <v>Lutz</v>
+      </c>
+      <c r="M38">
+        <v>75</v>
+      </c>
+      <c r="N38">
+        <v>48</v>
+      </c>
+      <c r="O38">
+        <v>9</v>
+      </c>
+      <c r="P38">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="b">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>18</v>
+      </c>
+      <c r="S38">
+        <v>11</v>
+      </c>
+      <c r="T38" t="b">
+        <v>0</v>
+      </c>
+      <c r="U38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>12</v>
+      </c>
+      <c r="B39" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C39" t="str">
+        <v>United Kingdom</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Rina Sawayama</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Hold the girl</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>119</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>109</v>
+      </c>
+      <c r="K39" t="str">
+        <v>FabioMassimo Falchi</v>
+      </c>
+      <c r="L39" t="str">
+        <v>FabioMassimo</v>
+      </c>
+      <c r="M39">
+        <v>83</v>
+      </c>
+      <c r="N39">
+        <v>36</v>
+      </c>
+      <c r="O39">
+        <v>4</v>
+      </c>
+      <c r="P39">
         <v>23</v>
       </c>
-      <c r="K35" t="str">
+      <c r="Q39" t="b">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>18</v>
+      </c>
+      <c r="S39">
+        <v>14</v>
+      </c>
+      <c r="T39" t="b">
+        <v>0</v>
+      </c>
+      <c r="U39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>12</v>
+      </c>
+      <c r="B40" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Armenia</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Rosa Linn &amp;amp; Duncan Laurence</v>
+      </c>
+      <c r="E40" t="str">
+        <v>WDIA (Would do it again)</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <v>112</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>70</v>
+      </c>
+      <c r="K40" t="str">
+        <v>Rui Reis</v>
+      </c>
+      <c r="L40" t="str">
+        <v>Rui Reis</v>
+      </c>
+      <c r="M40">
+        <v>62</v>
+      </c>
+      <c r="N40">
+        <v>50</v>
+      </c>
+      <c r="O40">
+        <v>12</v>
+      </c>
+      <c r="P40">
+        <v>6</v>
+      </c>
+      <c r="Q40" t="b">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>16</v>
+      </c>
+      <c r="S40">
+        <v>10</v>
+      </c>
+      <c r="T40" t="b">
+        <v>0</v>
+      </c>
+      <c r="U40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>12</v>
+      </c>
+      <c r="B41" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Spain</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Agoney</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Arder</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <v>110</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>91</v>
+      </c>
+      <c r="K41" t="str">
+        <v>Argiris Maniotas</v>
+      </c>
+      <c r="L41" t="str">
+        <v>Argiris</v>
+      </c>
+      <c r="M41">
+        <v>81</v>
+      </c>
+      <c r="N41">
+        <v>29</v>
+      </c>
+      <c r="O41">
+        <v>10</v>
+      </c>
+      <c r="P41">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="b">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>15</v>
+      </c>
+      <c r="S41">
+        <v>13</v>
+      </c>
+      <c r="T41" t="b">
+        <v>0</v>
+      </c>
+      <c r="U41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>12</v>
+      </c>
+      <c r="B42" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C42" t="str">
+        <v>San Marino</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Lazza</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Cenere</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>6</v>
+      </c>
+      <c r="H42">
+        <v>107</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>97</v>
+      </c>
+      <c r="K42" t="str">
+        <v xml:space="preserve">Adnan Laoudy </v>
+      </c>
+      <c r="L42" t="str">
+        <v>Adnan Laoudy</v>
+      </c>
+      <c r="M42">
+        <v>87</v>
+      </c>
+      <c r="N42">
+        <v>20</v>
+      </c>
+      <c r="O42">
+        <v>3</v>
+      </c>
+      <c r="P42">
+        <v>13</v>
+      </c>
+      <c r="Q42" t="b">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>20</v>
+      </c>
+      <c r="S42">
+        <v>13</v>
+      </c>
+      <c r="T42" t="b">
+        <v>0</v>
+      </c>
+      <c r="U42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>12</v>
+      </c>
+      <c r="B43" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Hungary</v>
+      </c>
+      <c r="D43" t="str">
+        <v>NOX</v>
+      </c>
+      <c r="E43" t="str">
+        <v>November</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>7</v>
+      </c>
+      <c r="H43">
+        <v>100</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>115</v>
+      </c>
+      <c r="K43" t="str">
+        <v>Martin Carlsholt Unger</v>
+      </c>
+      <c r="L43" t="str">
+        <v>Martin Carlshollt Unger</v>
+      </c>
+      <c r="M43">
+        <v>62</v>
+      </c>
+      <c r="N43">
+        <v>38</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>24</v>
+      </c>
+      <c r="Q43" t="b">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>18</v>
+      </c>
+      <c r="S43">
+        <v>15</v>
+      </c>
+      <c r="T43" t="b">
+        <v>0</v>
+      </c>
+      <c r="U43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>12</v>
+      </c>
+      <c r="B44" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Ukraine</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Kazka</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Cry</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>8</v>
+      </c>
+      <c r="H44">
+        <v>100</v>
+      </c>
+      <c r="I44">
+        <v>8</v>
+      </c>
+      <c r="J44">
+        <v>59</v>
+      </c>
+      <c r="K44" t="str">
+        <v>Mauro Correia</v>
+      </c>
+      <c r="L44" t="str">
+        <v>Mauro Correia</v>
+      </c>
+      <c r="M44">
+        <v>61</v>
+      </c>
+      <c r="N44">
+        <v>39</v>
+      </c>
+      <c r="O44">
+        <v>5</v>
+      </c>
+      <c r="P44">
+        <v>15</v>
+      </c>
+      <c r="Q44" t="b">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>17</v>
+      </c>
+      <c r="S44">
+        <v>9</v>
+      </c>
+      <c r="T44" t="b">
+        <v>0</v>
+      </c>
+      <c r="U44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>12</v>
+      </c>
+      <c r="B45" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Karsten Walter &amp; Marina Marx</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Lass die anderen reden</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>9</v>
+      </c>
+      <c r="H45">
+        <v>99</v>
+      </c>
+      <c r="I45">
+        <v>6</v>
+      </c>
+      <c r="J45">
+        <v>68</v>
+      </c>
+      <c r="K45" t="str">
+        <v>Richard Triendl</v>
+      </c>
+      <c r="L45" t="str">
+        <v>Richard T.</v>
+      </c>
+      <c r="M45">
+        <v>74</v>
+      </c>
+      <c r="N45">
+        <v>25</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>20</v>
+      </c>
+      <c r="Q45" t="b">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <v>19</v>
+      </c>
+      <c r="S45">
+        <v>12</v>
+      </c>
+      <c r="T45" t="b">
+        <v>0</v>
+      </c>
+      <c r="U45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>12</v>
+      </c>
+      <c r="B46" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Finland</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Chisu</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Mysteeri</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>10</v>
+      </c>
+      <c r="H46">
+        <v>89</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="J46">
+        <v>77</v>
+      </c>
+      <c r="K46" t="str">
+        <v>Francesco Perrone</v>
+      </c>
+      <c r="L46" t="str">
+        <v>Francesco Perrone</v>
+      </c>
+      <c r="M46">
+        <v>65</v>
+      </c>
+      <c r="N46">
+        <v>24</v>
+      </c>
+      <c r="O46">
+        <v>7</v>
+      </c>
+      <c r="P46">
+        <v>19</v>
+      </c>
+      <c r="Q46" t="b">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <v>16</v>
+      </c>
+      <c r="S46">
+        <v>13</v>
+      </c>
+      <c r="T46" t="b">
+        <v>0</v>
+      </c>
+      <c r="U46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>12</v>
+      </c>
+      <c r="B47" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Italy</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Maneskin</v>
+      </c>
+      <c r="E47" t="str">
+        <v>The loneliest</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>11</v>
+      </c>
+      <c r="H47">
+        <v>89</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>83</v>
+      </c>
+      <c r="K47" t="str">
+        <v>Paolo Bortoli</v>
+      </c>
+      <c r="L47" t="str">
+        <v>Paolo</v>
+      </c>
+      <c r="M47">
+        <v>47</v>
+      </c>
+      <c r="N47">
+        <v>42</v>
+      </c>
+      <c r="O47">
+        <v>6</v>
+      </c>
+      <c r="P47">
+        <v>16</v>
+      </c>
+      <c r="Q47" t="b">
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <v>14</v>
+      </c>
+      <c r="S47">
+        <v>12</v>
+      </c>
+      <c r="T47" t="b">
+        <v>0</v>
+      </c>
+      <c r="U47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>12</v>
+      </c>
+      <c r="B48" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Russia</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Marianna Mira</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Бог мой</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>12</v>
+      </c>
+      <c r="H48">
+        <v>89</v>
+      </c>
+      <c r="I48">
+        <v>9</v>
+      </c>
+      <c r="J48">
+        <v>58</v>
+      </c>
+      <c r="K48" t="str">
+        <v>??? Luís Coelho</v>
+      </c>
+      <c r="L48" t="str">
+        <v>Luís Coelho</v>
+      </c>
+      <c r="M48">
+        <v>54</v>
+      </c>
+      <c r="N48">
+        <v>35</v>
+      </c>
+      <c r="O48">
+        <v>10</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="b">
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <v>14</v>
+      </c>
+      <c r="S48">
+        <v>9</v>
+      </c>
+      <c r="T48" t="b">
+        <v>0</v>
+      </c>
+      <c r="U48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>12</v>
+      </c>
+      <c r="B49" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Bosnia and Herzegovina</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Dzejla Ramovic</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Sparta</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>13</v>
+      </c>
+      <c r="H49">
+        <v>85</v>
+      </c>
+      <c r="I49">
+        <v>12</v>
+      </c>
+      <c r="J49">
+        <v>55</v>
+      </c>
+      <c r="K49" t="str">
+        <v>??? Christophoros Andrianos</v>
+      </c>
+      <c r="L49" t="str">
+        <v>Christophoros Andrianos</v>
+      </c>
+      <c r="M49">
+        <v>40</v>
+      </c>
+      <c r="N49">
+        <v>45</v>
+      </c>
+      <c r="O49">
+        <v>16</v>
+      </c>
+      <c r="P49">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="b">
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <v>13</v>
+      </c>
+      <c r="S49">
+        <v>13</v>
+      </c>
+      <c r="T49" t="b">
+        <v>0</v>
+      </c>
+      <c r="U49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>12</v>
+      </c>
+      <c r="B50" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Ben Hazlewood</v>
+      </c>
+      <c r="E50" t="str">
+        <v>Fumes</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>14</v>
+      </c>
+      <c r="H50">
+        <v>84</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="J50">
+        <v>78</v>
+      </c>
+      <c r="K50" t="str">
+        <v>Giovanni Affronte</v>
+      </c>
+      <c r="L50" t="str">
+        <v>Giovanni</v>
+      </c>
+      <c r="M50">
+        <v>66</v>
+      </c>
+      <c r="N50">
+        <v>18</v>
+      </c>
+      <c r="O50">
+        <v>12</v>
+      </c>
+      <c r="P50">
+        <v>8</v>
+      </c>
+      <c r="Q50" t="b">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>18</v>
+      </c>
+      <c r="S50">
+        <v>12</v>
+      </c>
+      <c r="T50" t="b">
+        <v>0</v>
+      </c>
+      <c r="U50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>12</v>
+      </c>
+      <c r="B51" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C51" t="str">
+        <v>North Macedonia</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Lozano</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Majko</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>15</v>
+      </c>
+      <c r="H51">
+        <v>83</v>
+      </c>
+      <c r="I51">
+        <v>9</v>
+      </c>
+      <c r="J51">
+        <v>58</v>
+      </c>
+      <c r="K51" t="str">
+        <v>Paul Didden</v>
+      </c>
+      <c r="L51" t="str">
+        <v>Paul Didden</v>
+      </c>
+      <c r="M51">
+        <v>49</v>
+      </c>
+      <c r="N51">
+        <v>34</v>
+      </c>
+      <c r="O51">
+        <v>5</v>
+      </c>
+      <c r="P51">
+        <v>18</v>
+      </c>
+      <c r="Q51" t="b">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>12</v>
+      </c>
+      <c r="S51">
+        <v>9</v>
+      </c>
+      <c r="T51" t="b">
+        <v>0</v>
+      </c>
+      <c r="U51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>12</v>
+      </c>
+      <c r="B52" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Croatia</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Alkonost of Balkan</v>
+      </c>
+      <c r="E52" t="str">
+        <v>I lijepo pjeva za lugom djevojka</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>16</v>
+      </c>
+      <c r="H52">
+        <v>81</v>
+      </c>
+      <c r="I52">
+        <v>6</v>
+      </c>
+      <c r="J52">
+        <v>66</v>
+      </c>
+      <c r="K52" t="str">
+        <v>Tomislav Roso</v>
+      </c>
+      <c r="L52" t="str">
+        <v>Tom</v>
+      </c>
+      <c r="M52">
+        <v>57</v>
+      </c>
+      <c r="N52">
+        <v>24</v>
+      </c>
+      <c r="O52">
+        <v>2</v>
+      </c>
+      <c r="P52">
+        <v>22</v>
+      </c>
+      <c r="Q52" t="b">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>12</v>
+      </c>
+      <c r="S52">
+        <v>10</v>
+      </c>
+      <c r="T52" t="b">
+        <v>0</v>
+      </c>
+      <c r="U52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>12</v>
+      </c>
+      <c r="B53" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Bulgaria</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Victoria</v>
+      </c>
+      <c r="E53" t="str">
+        <v>How to ruin a life</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>17</v>
+      </c>
+      <c r="H53">
+        <v>71</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+      <c r="J53">
+        <v>74</v>
+      </c>
+      <c r="K53" t="str">
+        <v>Pavel Todorov</v>
+      </c>
+      <c r="L53" t="str">
+        <v>Pavel Todorov</v>
+      </c>
+      <c r="M53">
+        <v>59</v>
+      </c>
+      <c r="N53">
+        <v>12</v>
+      </c>
+      <c r="O53">
+        <v>13</v>
+      </c>
+      <c r="P53">
+        <v>9</v>
+      </c>
+      <c r="Q53" t="b">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>14</v>
+      </c>
+      <c r="S53">
+        <v>11</v>
+      </c>
+      <c r="T53" t="b">
+        <v>0</v>
+      </c>
+      <c r="U53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>12</v>
+      </c>
+      <c r="B54" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Belgium</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Regi &amp;amp; Camille</v>
+      </c>
+      <c r="E54" t="str">
+        <v>Vergeet de tijd</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>18</v>
+      </c>
+      <c r="H54">
+        <v>70</v>
+      </c>
+      <c r="I54">
+        <v>11</v>
+      </c>
+      <c r="J54">
+        <v>56</v>
+      </c>
+      <c r="K54" t="str">
+        <v>Stefano Di Betta</v>
+      </c>
+      <c r="L54" t="str">
+        <v>Stefan</v>
+      </c>
+      <c r="M54">
+        <v>52</v>
+      </c>
+      <c r="N54">
+        <v>18</v>
+      </c>
+      <c r="O54">
+        <v>15</v>
+      </c>
+      <c r="P54">
+        <v>10</v>
+      </c>
+      <c r="Q54" t="b">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>16</v>
+      </c>
+      <c r="S54">
+        <v>8</v>
+      </c>
+      <c r="T54" t="b">
+        <v>0</v>
+      </c>
+      <c r="U54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>12</v>
+      </c>
+      <c r="B55" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Ireland</v>
+      </c>
+      <c r="D55" t="str">
+        <v>RuthAnne</v>
+      </c>
+      <c r="E55" t="str">
+        <v>Remember this</v>
+      </c>
+      <c r="F55" t="str">
+        <v>F</v>
+      </c>
+      <c r="G55">
+        <v>19</v>
+      </c>
+      <c r="H55">
+        <v>70</v>
+      </c>
+      <c r="I55" t="str">
+        <v/>
+      </c>
+      <c r="J55" t="str">
+        <v/>
+      </c>
+      <c r="K55" t="str">
+        <v>??? The Lady Cru</v>
+      </c>
+      <c r="L55" t="str">
+        <v>The Lady Cru</v>
+      </c>
+      <c r="M55">
+        <v>52</v>
+      </c>
+      <c r="N55">
+        <v>18</v>
+      </c>
+      <c r="O55" t="str">
+        <v/>
+      </c>
+      <c r="P55">
+        <v>11</v>
+      </c>
+      <c r="Q55" t="b">
+        <v>1</v>
+      </c>
+      <c r="R55">
+        <v>12</v>
+      </c>
+      <c r="S55" t="str">
+        <v/>
+      </c>
+      <c r="T55" t="b">
+        <v>0</v>
+      </c>
+      <c r="U55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>12</v>
+      </c>
+      <c r="B56" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Cyprus</v>
+      </c>
+      <c r="D56" t="str">
+        <v>BIASED BEAST</v>
+      </c>
+      <c r="E56" t="str">
+        <v>I am you</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>20</v>
+      </c>
+      <c r="H56">
+        <v>67</v>
+      </c>
+      <c r="I56">
+        <v>7</v>
+      </c>
+      <c r="J56">
+        <v>65</v>
+      </c>
+      <c r="K56" t="str">
+        <v>Michalis Terzis</v>
+      </c>
+      <c r="L56" t="str">
+        <v>Michael</v>
+      </c>
+      <c r="M56">
+        <v>35</v>
+      </c>
+      <c r="N56">
+        <v>32</v>
+      </c>
+      <c r="O56">
+        <v>8</v>
+      </c>
+      <c r="P56">
+        <v>14</v>
+      </c>
+      <c r="Q56" t="b">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>10</v>
+      </c>
+      <c r="S56">
+        <v>14</v>
+      </c>
+      <c r="T56" t="b">
+        <v>0</v>
+      </c>
+      <c r="U56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>12</v>
+      </c>
+      <c r="B57" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C57" t="str">
+        <v>France</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Zazie</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Speed</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>21</v>
+      </c>
+      <c r="H57">
+        <v>65</v>
+      </c>
+      <c r="I57">
+        <v>11</v>
+      </c>
+      <c r="J57">
+        <v>55</v>
+      </c>
+      <c r="K57" t="str">
+        <v>Hendrik Wolff</v>
+      </c>
+      <c r="L57" t="str">
+        <v>Hendrik</v>
+      </c>
+      <c r="M57">
+        <v>50</v>
+      </c>
+      <c r="N57">
+        <v>15</v>
+      </c>
+      <c r="O57">
+        <v>15</v>
+      </c>
+      <c r="P57">
+        <v>7</v>
+      </c>
+      <c r="Q57" t="b">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>14</v>
+      </c>
+      <c r="S57">
+        <v>12</v>
+      </c>
+      <c r="T57" t="b">
+        <v>0</v>
+      </c>
+      <c r="U57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>12</v>
+      </c>
+      <c r="B58" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Switzerland</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Joya Marleen</v>
+      </c>
+      <c r="E58" t="str">
+        <v>Driver</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>22</v>
+      </c>
+      <c r="H58">
+        <v>57</v>
+      </c>
+      <c r="I58">
+        <v>8</v>
+      </c>
+      <c r="J58">
+        <v>61</v>
+      </c>
+      <c r="K58" t="str">
+        <v>FabioMassimo Falchi</v>
+      </c>
+      <c r="L58" t="str">
+        <v>Fabio Cuau Boukentar</v>
+      </c>
+      <c r="M58">
+        <v>36</v>
+      </c>
+      <c r="N58">
+        <v>21</v>
+      </c>
+      <c r="O58">
+        <v>2</v>
+      </c>
+      <c r="P58">
+        <v>21</v>
+      </c>
+      <c r="Q58" t="b">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>14</v>
+      </c>
+      <c r="S58">
+        <v>11</v>
+      </c>
+      <c r="T58" t="b">
+        <v>0</v>
+      </c>
+      <c r="U58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>12</v>
+      </c>
+      <c r="B59" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Andorra</v>
+      </c>
+      <c r="D59" t="str">
+        <v>David Bisbal</v>
+      </c>
+      <c r="E59" t="str">
+        <v>Ajedrez</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>23</v>
+      </c>
+      <c r="H59">
+        <v>53</v>
+      </c>
+      <c r="I59">
+        <v>7</v>
+      </c>
+      <c r="J59">
+        <v>62</v>
+      </c>
+      <c r="K59" t="str">
+        <v>Edu Padrós Creus</v>
+      </c>
+      <c r="L59" t="str">
+        <v>Edu Padrós Creus</v>
+      </c>
+      <c r="M59">
+        <v>39</v>
+      </c>
+      <c r="N59">
+        <v>14</v>
+      </c>
+      <c r="O59">
+        <v>3</v>
+      </c>
+      <c r="P59">
+        <v>25</v>
+      </c>
+      <c r="Q59" t="b">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>11</v>
+      </c>
+      <c r="S59">
+        <v>10</v>
+      </c>
+      <c r="T59" t="b">
+        <v>0</v>
+      </c>
+      <c r="U59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>12</v>
+      </c>
+      <c r="B60" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Austria</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Darius &amp; Finlay X Adam Bü ft. Max Landry</v>
+      </c>
+      <c r="E60" t="str">
+        <v>Possible</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>24</v>
+      </c>
+      <c r="H60">
+        <v>53</v>
+      </c>
+      <c r="I60">
+        <v>12</v>
+      </c>
+      <c r="J60">
+        <v>53</v>
+      </c>
+      <c r="K60" t="str">
+        <v>Christian Sandmann</v>
+      </c>
+      <c r="L60" t="str">
+        <v>Christian S.</v>
+      </c>
+      <c r="M60">
+        <v>41</v>
+      </c>
+      <c r="N60">
+        <v>12</v>
+      </c>
+      <c r="O60">
+        <v>18</v>
+      </c>
+      <c r="P60">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="b">
+        <v>1</v>
+      </c>
+      <c r="R60">
+        <v>11</v>
+      </c>
+      <c r="S60">
+        <v>9</v>
+      </c>
+      <c r="T60" t="b">
+        <v>0</v>
+      </c>
+      <c r="U60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>12</v>
+      </c>
+      <c r="B61" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Netherlands</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Floor Jansen</v>
+      </c>
+      <c r="E61" t="str">
+        <v>Daydream</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>25</v>
+      </c>
+      <c r="H61">
+        <v>36</v>
+      </c>
+      <c r="I61">
+        <v>10</v>
+      </c>
+      <c r="J61">
+        <v>57</v>
+      </c>
+      <c r="K61" t="str">
+        <v>Katrin Born</v>
+      </c>
+      <c r="L61" t="str">
+        <v>Katrin</v>
+      </c>
+      <c r="M61">
+        <v>25</v>
+      </c>
+      <c r="N61">
+        <v>11</v>
+      </c>
+      <c r="O61">
+        <v>9</v>
+      </c>
+      <c r="P61">
+        <v>17</v>
+      </c>
+      <c r="Q61" t="b">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>9</v>
+      </c>
+      <c r="S61">
+        <v>11</v>
+      </c>
+      <c r="T61" t="b">
+        <v>0</v>
+      </c>
+      <c r="U61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>12</v>
+      </c>
+      <c r="B62" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Albania</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Elhaida Dani</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Vetja</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="str">
+        <v/>
+      </c>
+      <c r="H62" t="str">
+        <v/>
+      </c>
+      <c r="I62">
+        <v>13</v>
+      </c>
+      <c r="J62">
+        <v>51</v>
+      </c>
+      <c r="K62" t="str">
+        <v>Jesus Santamaria Rodriguez</v>
+      </c>
+      <c r="L62" t="str">
+        <v>Jesus Santamaria Rodriguez</v>
+      </c>
+      <c r="M62" t="str">
+        <v/>
+      </c>
+      <c r="N62" t="str">
+        <v/>
+      </c>
+      <c r="O62">
+        <v>14</v>
+      </c>
+      <c r="P62" t="str">
+        <v/>
+      </c>
+      <c r="Q62" t="b">
+        <v>0</v>
+      </c>
+      <c r="R62" t="str">
+        <v/>
+      </c>
+      <c r="S62">
+        <v>11</v>
+      </c>
+      <c r="T62" t="b">
+        <v>0</v>
+      </c>
+      <c r="U62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>12</v>
+      </c>
+      <c r="B63" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Israel</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Dotan</v>
+      </c>
+      <c r="E63" t="str">
+        <v>No words</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="str">
+        <v/>
+      </c>
+      <c r="H63" t="str">
+        <v/>
+      </c>
+      <c r="I63">
+        <v>14</v>
+      </c>
+      <c r="J63">
+        <v>48</v>
+      </c>
+      <c r="K63" t="str">
+        <v>Joaquin Montesinos</v>
+      </c>
+      <c r="L63" t="str">
+        <v>Joaquin Montesinos</v>
+      </c>
+      <c r="M63" t="str">
+        <v/>
+      </c>
+      <c r="N63" t="str">
+        <v/>
+      </c>
+      <c r="O63">
+        <v>11</v>
+      </c>
+      <c r="P63" t="str">
+        <v/>
+      </c>
+      <c r="Q63" t="b">
+        <v>0</v>
+      </c>
+      <c r="R63" t="str">
+        <v/>
+      </c>
+      <c r="S63">
+        <v>10</v>
+      </c>
+      <c r="T63" t="b">
+        <v>0</v>
+      </c>
+      <c r="U63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>12</v>
+      </c>
+      <c r="B64" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Iceland</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Of Monsters and Men</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Destroyer</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="str">
+        <v/>
+      </c>
+      <c r="H64" t="str">
+        <v/>
+      </c>
+      <c r="I64">
+        <v>15</v>
+      </c>
+      <c r="J64">
+        <v>43</v>
+      </c>
+      <c r="K64" t="str">
+        <v>Zé Lança</v>
+      </c>
+      <c r="L64" t="str">
+        <v>Zé Lança</v>
+      </c>
+      <c r="M64" t="str">
+        <v/>
+      </c>
+      <c r="N64" t="str">
+        <v/>
+      </c>
+      <c r="O64">
+        <v>13</v>
+      </c>
+      <c r="P64" t="str">
+        <v/>
+      </c>
+      <c r="Q64" t="b">
+        <v>0</v>
+      </c>
+      <c r="R64" t="str">
+        <v/>
+      </c>
+      <c r="S64">
+        <v>8</v>
+      </c>
+      <c r="T64" t="b">
+        <v>0</v>
+      </c>
+      <c r="U64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>12</v>
+      </c>
+      <c r="B65" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Greece</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Anastasia</v>
+      </c>
+      <c r="E65" t="str">
+        <v>Mystiko</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="str">
+        <v/>
+      </c>
+      <c r="H65" t="str">
+        <v/>
+      </c>
+      <c r="I65">
+        <v>16</v>
+      </c>
+      <c r="J65">
+        <v>42</v>
+      </c>
+      <c r="K65" t="str">
+        <v>Rodrigo Erazo</v>
+      </c>
+      <c r="L65" t="str">
+        <v>Rodrigo  Erazo</v>
+      </c>
+      <c r="M65" t="str">
+        <v/>
+      </c>
+      <c r="N65" t="str">
+        <v/>
+      </c>
+      <c r="O65">
+        <v>17</v>
+      </c>
+      <c r="P65" t="str">
+        <v/>
+      </c>
+      <c r="Q65" t="b">
+        <v>0</v>
+      </c>
+      <c r="R65" t="str">
+        <v/>
+      </c>
+      <c r="S65">
+        <v>7</v>
+      </c>
+      <c r="T65" t="b">
+        <v>0</v>
+      </c>
+      <c r="U65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>12</v>
+      </c>
+      <c r="B66" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Slovakia</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Nela Pocisková ft. YAEL</v>
+      </c>
+      <c r="E66" t="str">
+        <v>Magnet</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="str">
+        <v/>
+      </c>
+      <c r="H66" t="str">
+        <v/>
+      </c>
+      <c r="I66">
+        <v>17</v>
+      </c>
+      <c r="J66">
+        <v>39</v>
+      </c>
+      <c r="K66" t="str">
+        <v>Mathias Christiansson</v>
+      </c>
+      <c r="L66" t="str">
+        <v>Mathias</v>
+      </c>
+      <c r="M66" t="str">
+        <v/>
+      </c>
+      <c r="N66" t="str">
+        <v/>
+      </c>
+      <c r="O66">
+        <v>18</v>
+      </c>
+      <c r="P66" t="str">
+        <v/>
+      </c>
+      <c r="Q66" t="b">
+        <v>0</v>
+      </c>
+      <c r="R66" t="str">
+        <v/>
+      </c>
+      <c r="S66">
+        <v>10</v>
+      </c>
+      <c r="T66" t="b">
+        <v>0</v>
+      </c>
+      <c r="U66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>12</v>
+      </c>
+      <c r="B67" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Monaco</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Olivia Dorato</v>
+      </c>
+      <c r="E67" t="str">
+        <v>Bye</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="str">
+        <v/>
+      </c>
+      <c r="H67" t="str">
+        <v/>
+      </c>
+      <c r="I67">
+        <v>18</v>
+      </c>
+      <c r="J67">
+        <v>21</v>
+      </c>
+      <c r="K67" t="str">
+        <v>Phil Bailey</v>
+      </c>
+      <c r="L67" t="str">
+        <v>Phil Bailey</v>
+      </c>
+      <c r="M67" t="str">
+        <v/>
+      </c>
+      <c r="N67" t="str">
+        <v/>
+      </c>
+      <c r="O67">
+        <v>4</v>
+      </c>
+      <c r="P67" t="str">
+        <v/>
+      </c>
+      <c r="Q67" t="b">
+        <v>0</v>
+      </c>
+      <c r="R67" t="str">
+        <v/>
+      </c>
+      <c r="S67">
+        <v>7</v>
+      </c>
+      <c r="T67" t="b">
+        <v>0</v>
+      </c>
+      <c r="U67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>12</v>
+      </c>
+      <c r="B68" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Slovenia</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Joker Out</v>
+      </c>
+      <c r="E68" t="str">
+        <v>Demoni</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68" t="str">
+        <v/>
+      </c>
+      <c r="H68" t="str">
+        <v/>
+      </c>
+      <c r="I68">
+        <v>13</v>
+      </c>
+      <c r="J68">
+        <v>52</v>
+      </c>
+      <c r="K68" t="str">
+        <v>Richard Cox</v>
+      </c>
+      <c r="L68" t="str">
+        <v>Richard Cox</v>
+      </c>
+      <c r="M68" t="str">
+        <v/>
+      </c>
+      <c r="N68" t="str">
+        <v/>
+      </c>
+      <c r="O68">
+        <v>16</v>
+      </c>
+      <c r="P68" t="str">
+        <v/>
+      </c>
+      <c r="Q68" t="b">
+        <v>0</v>
+      </c>
+      <c r="R68" t="str">
+        <v/>
+      </c>
+      <c r="S68">
+        <v>12</v>
+      </c>
+      <c r="T68" t="b">
+        <v>0</v>
+      </c>
+      <c r="U68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>12</v>
+      </c>
+      <c r="B69" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Georgia</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Yaseniya</v>
+      </c>
+      <c r="E69" t="str">
+        <v>Love Carousel</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69" t="str">
+        <v/>
+      </c>
+      <c r="H69" t="str">
+        <v/>
+      </c>
+      <c r="I69">
+        <v>14</v>
+      </c>
+      <c r="J69">
+        <v>46</v>
+      </c>
+      <c r="K69" t="str">
+        <v>Luke Woods</v>
+      </c>
+      <c r="L69" t="str">
+        <v>Luke</v>
+      </c>
+      <c r="M69" t="str">
+        <v/>
+      </c>
+      <c r="N69" t="str">
+        <v/>
+      </c>
+      <c r="O69">
+        <v>11</v>
+      </c>
+      <c r="P69" t="str">
+        <v/>
+      </c>
+      <c r="Q69" t="b">
+        <v>0</v>
+      </c>
+      <c r="R69" t="str">
+        <v/>
+      </c>
+      <c r="S69">
+        <v>9</v>
+      </c>
+      <c r="T69" t="b">
+        <v>0</v>
+      </c>
+      <c r="U69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>12</v>
+      </c>
+      <c r="B70" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Morocco</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Mehdi Bahmad</v>
+      </c>
+      <c r="E70" t="str">
+        <v>Buy me (a bird)</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70" t="str">
+        <v/>
+      </c>
+      <c r="H70" t="str">
+        <v/>
+      </c>
+      <c r="I70">
+        <v>15</v>
+      </c>
+      <c r="J70">
+        <v>37</v>
+      </c>
+      <c r="K70" t="str">
+        <v>Sven Gessinger</v>
+      </c>
+      <c r="L70" t="str">
+        <v>Sven G.</v>
+      </c>
+      <c r="M70" t="str">
+        <v/>
+      </c>
+      <c r="N70" t="str">
+        <v/>
+      </c>
+      <c r="O70">
+        <v>17</v>
+      </c>
+      <c r="P70" t="str">
+        <v/>
+      </c>
+      <c r="Q70" t="b">
+        <v>0</v>
+      </c>
+      <c r="R70" t="str">
+        <v/>
+      </c>
+      <c r="S70">
+        <v>8</v>
+      </c>
+      <c r="T70" t="b">
+        <v>0</v>
+      </c>
+      <c r="U70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>12</v>
+      </c>
+      <c r="B71" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Türkiye</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Mabel Matiz</v>
+      </c>
+      <c r="E71" t="str">
+        <v>Fan</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71" t="str">
+        <v/>
+      </c>
+      <c r="H71" t="str">
+        <v/>
+      </c>
+      <c r="I71">
+        <v>16</v>
+      </c>
+      <c r="J71">
+        <v>31</v>
+      </c>
+      <c r="K71" t="str">
+        <v>Nijat Badalov</v>
+      </c>
+      <c r="L71" t="str">
+        <v>Nijat</v>
+      </c>
+      <c r="M71" t="str">
+        <v/>
+      </c>
+      <c r="N71" t="str">
+        <v/>
+      </c>
+      <c r="O71">
+        <v>8</v>
+      </c>
+      <c r="P71" t="str">
+        <v/>
+      </c>
+      <c r="Q71" t="b">
+        <v>0</v>
+      </c>
+      <c r="R71" t="str">
+        <v/>
+      </c>
+      <c r="S71">
+        <v>8</v>
+      </c>
+      <c r="T71" t="b">
+        <v>0</v>
+      </c>
+      <c r="U71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>12</v>
+      </c>
+      <c r="B72" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Portugal</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Casa ft. Buba Espinho</v>
+      </c>
+      <c r="E72" t="str">
+        <v>D.A.M.A.</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72" t="str">
+        <v/>
+      </c>
+      <c r="H72" t="str">
+        <v/>
+      </c>
+      <c r="I72">
+        <v>17</v>
+      </c>
+      <c r="J72">
+        <v>16</v>
+      </c>
+      <c r="K72" t="str">
+        <v>Ricardo Gomes</v>
+      </c>
+      <c r="L72" t="str">
+        <v>Ricardo Gomes</v>
+      </c>
+      <c r="M72" t="str">
+        <v/>
+      </c>
+      <c r="N72" t="str">
+        <v/>
+      </c>
+      <c r="O72">
+        <v>14</v>
+      </c>
+      <c r="P72" t="str">
+        <v/>
+      </c>
+      <c r="Q72" t="b">
+        <v>0</v>
+      </c>
+      <c r="R72" t="str">
+        <v/>
+      </c>
+      <c r="S72">
+        <v>4</v>
+      </c>
+      <c r="T72" t="b">
+        <v>0</v>
+      </c>
+      <c r="U72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>12</v>
+      </c>
+      <c r="B73" t="str">
+        <v>EMSC 2302</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Serbia</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Edita x Dzordzi</v>
+      </c>
+      <c r="E73" t="str">
+        <v>Etida</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73" t="str">
+        <v/>
+      </c>
+      <c r="H73" t="str">
+        <v/>
+      </c>
+      <c r="I73">
+        <v>18</v>
+      </c>
+      <c r="J73">
+        <v>8</v>
+      </c>
+      <c r="K73" t="str">
+        <v>Mile Gojcevic</v>
+      </c>
+      <c r="L73" t="str">
+        <v>Mile</v>
+      </c>
+      <c r="M73" t="str">
+        <v/>
+      </c>
+      <c r="N73" t="str">
+        <v/>
+      </c>
+      <c r="O73">
+        <v>7</v>
+      </c>
+      <c r="P73" t="str">
+        <v/>
+      </c>
+      <c r="Q73" t="b">
+        <v>0</v>
+      </c>
+      <c r="R73" t="str">
+        <v/>
+      </c>
+      <c r="S73">
+        <v>3</v>
+      </c>
+      <c r="T73" t="b">
+        <v>0</v>
+      </c>
+      <c r="U73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>13</v>
+      </c>
+      <c r="B74" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Cyprus</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Konstantinos Argiros</v>
+      </c>
+      <c r="E74" t="str">
+        <v>Elpida</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>115</v>
+      </c>
+      <c r="I74">
+        <v>4</v>
+      </c>
+      <c r="J74">
+        <v>73</v>
+      </c>
+      <c r="K74" t="str">
+        <v>Michalis Terzis</v>
+      </c>
+      <c r="L74" t="str">
+        <v>Michalis</v>
+      </c>
+      <c r="M74">
+        <v>75</v>
+      </c>
+      <c r="N74">
+        <v>40</v>
+      </c>
+      <c r="O74">
+        <v>9</v>
+      </c>
+      <c r="P74">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="b">
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <v>18</v>
+      </c>
+      <c r="S74">
+        <v>10</v>
+      </c>
+      <c r="T74" t="b">
+        <v>0</v>
+      </c>
+      <c r="U74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>13</v>
+      </c>
+      <c r="B75" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Netherlands</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Ilse DeLange</v>
+      </c>
+      <c r="E75" t="str">
+        <v>Drown us out</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <v>113</v>
+      </c>
+      <c r="I75">
+        <v>8</v>
+      </c>
+      <c r="J75">
+        <v>63</v>
+      </c>
+      <c r="K75" t="str">
+        <v>Lutz Bleckmann</v>
+      </c>
+      <c r="L75" t="str">
+        <v>Lutz</v>
+      </c>
+      <c r="M75">
+        <v>98</v>
+      </c>
+      <c r="N75">
+        <v>15</v>
+      </c>
+      <c r="O75">
+        <v>14</v>
+      </c>
+      <c r="P75">
+        <v>6</v>
+      </c>
+      <c r="Q75" t="b">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>20</v>
+      </c>
+      <c r="S75">
+        <v>12</v>
+      </c>
+      <c r="T75" t="b">
+        <v>0</v>
+      </c>
+      <c r="U75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>13</v>
+      </c>
+      <c r="B76" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Portugal</v>
+      </c>
+      <c r="D76" t="str">
+        <v>N.Ribeiro,Calema,Mariza</v>
+      </c>
+      <c r="E76" t="str">
+        <v>Maria Joana</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>3</v>
+      </c>
+      <c r="H76">
+        <v>113</v>
+      </c>
+      <c r="I76">
+        <v>7</v>
+      </c>
+      <c r="J76">
+        <v>68</v>
+      </c>
+      <c r="K76" t="str">
+        <v>Mauro Correia</v>
+      </c>
+      <c r="L76" t="str">
+        <v>Mauro Correia</v>
+      </c>
+      <c r="M76">
+        <v>96</v>
+      </c>
+      <c r="N76">
+        <v>17</v>
+      </c>
+      <c r="O76">
+        <v>12</v>
+      </c>
+      <c r="P76">
+        <v>10</v>
+      </c>
+      <c r="Q76" t="b">
+        <v>1</v>
+      </c>
+      <c r="R76">
+        <v>17</v>
+      </c>
+      <c r="S76">
+        <v>9</v>
+      </c>
+      <c r="T76" t="b">
+        <v>0</v>
+      </c>
+      <c r="U76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>13</v>
+      </c>
+      <c r="B77" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Armenia</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Rosa Linn</v>
+      </c>
+      <c r="E77" t="str">
+        <v>Never be mine</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <v>4</v>
+      </c>
+      <c r="H77">
+        <v>112</v>
+      </c>
+      <c r="I77">
+        <v>6</v>
+      </c>
+      <c r="J77">
+        <v>70</v>
+      </c>
+      <c r="K77" t="str">
+        <v>Mile Gojcevic</v>
+      </c>
+      <c r="L77" t="str">
+        <v>Mile</v>
+      </c>
+      <c r="M77">
+        <v>90</v>
+      </c>
+      <c r="N77">
+        <v>22</v>
+      </c>
+      <c r="O77">
+        <v>9</v>
+      </c>
+      <c r="P77">
+        <v>11</v>
+      </c>
+      <c r="Q77" t="b">
+        <v>1</v>
+      </c>
+      <c r="R77">
+        <v>15</v>
+      </c>
+      <c r="S77">
+        <v>11</v>
+      </c>
+      <c r="T77" t="b">
+        <v>0</v>
+      </c>
+      <c r="U77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>13</v>
+      </c>
+      <c r="B78" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Austria</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Thorsteinn Einarsson</v>
+      </c>
+      <c r="E78" t="str">
+        <v>Echo</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>5</v>
+      </c>
+      <c r="H78">
+        <v>106</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>81</v>
+      </c>
+      <c r="K78" t="str">
+        <v>Richard Triendl</v>
+      </c>
+      <c r="L78" t="str">
+        <v>Richard T.</v>
+      </c>
+      <c r="M78">
+        <v>79</v>
+      </c>
+      <c r="N78">
+        <v>27</v>
+      </c>
+      <c r="O78">
+        <v>2</v>
+      </c>
+      <c r="P78">
+        <v>25</v>
+      </c>
+      <c r="Q78" t="b">
+        <v>1</v>
+      </c>
+      <c r="R78">
+        <v>18</v>
+      </c>
+      <c r="S78">
+        <v>12</v>
+      </c>
+      <c r="T78" t="b">
+        <v>0</v>
+      </c>
+      <c r="U78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>13</v>
+      </c>
+      <c r="B79" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Ricki-Lee</v>
+      </c>
+      <c r="E79" t="str">
+        <v>On my own</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>6</v>
+      </c>
+      <c r="H79">
+        <v>104</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>93</v>
+      </c>
+      <c r="K79" t="str">
+        <v>??? Luís Coelho</v>
+      </c>
+      <c r="L79" t="str">
+        <v>Luís Coelho</v>
+      </c>
+      <c r="M79">
+        <v>79</v>
+      </c>
+      <c r="N79">
+        <v>25</v>
+      </c>
+      <c r="O79">
+        <v>11</v>
+      </c>
+      <c r="P79">
+        <v>8</v>
+      </c>
+      <c r="Q79" t="b">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>18</v>
+      </c>
+      <c r="S79">
+        <v>14</v>
+      </c>
+      <c r="T79" t="b">
+        <v>0</v>
+      </c>
+      <c r="U79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>13</v>
+      </c>
+      <c r="B80" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Israel</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Kayma</v>
+      </c>
+      <c r="E80" t="str">
+        <v>Bad blood</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>7</v>
+      </c>
+      <c r="H80">
+        <v>102</v>
+      </c>
+      <c r="I80">
+        <v>6</v>
+      </c>
+      <c r="J80">
+        <v>68</v>
+      </c>
+      <c r="K80" t="str">
+        <v>FabioMassimo Falchi</v>
+      </c>
+      <c r="L80" t="str">
+        <v>FabioMassimo</v>
+      </c>
+      <c r="M80">
+        <v>98</v>
+      </c>
+      <c r="N80">
+        <v>4</v>
+      </c>
+      <c r="O80">
+        <v>3</v>
+      </c>
+      <c r="P80">
+        <v>23</v>
+      </c>
+      <c r="Q80" t="b">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>15</v>
+      </c>
+      <c r="S80">
+        <v>11</v>
+      </c>
+      <c r="T80" t="b">
+        <v>0</v>
+      </c>
+      <c r="U80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>13</v>
+      </c>
+      <c r="B81" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Belgium</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Mentissa</v>
+      </c>
+      <c r="E81" t="str">
+        <v>Et bam</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>8</v>
+      </c>
+      <c r="H81">
+        <v>101</v>
+      </c>
+      <c r="I81">
+        <v>3</v>
+      </c>
+      <c r="J81">
+        <v>77</v>
+      </c>
+      <c r="K81" t="str">
+        <v>Joaquin Montesinos</v>
+      </c>
+      <c r="L81" t="str">
+        <v>Joaquin Montesinos</v>
+      </c>
+      <c r="M81">
+        <v>54</v>
+      </c>
+      <c r="N81">
+        <v>47</v>
+      </c>
+      <c r="O81">
+        <v>10</v>
+      </c>
+      <c r="P81">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="b">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>16</v>
+      </c>
+      <c r="S81">
+        <v>14</v>
+      </c>
+      <c r="T81" t="b">
+        <v>0</v>
+      </c>
+      <c r="U81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>13</v>
+      </c>
+      <c r="B82" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Sweden</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Léon</v>
+      </c>
+      <c r="E82" t="str">
+        <v>You and I</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>9</v>
+      </c>
+      <c r="H82">
+        <v>97</v>
+      </c>
+      <c r="I82">
+        <v>7</v>
+      </c>
+      <c r="J82">
+        <v>64</v>
+      </c>
+      <c r="K82" t="str">
+        <v>Martin Carlsholt Unger</v>
+      </c>
+      <c r="L82" t="str">
+        <v>Martin Carlshollt Unger</v>
+      </c>
+      <c r="M82">
+        <v>81</v>
+      </c>
+      <c r="N82">
+        <v>16</v>
+      </c>
+      <c r="O82">
+        <v>7</v>
+      </c>
+      <c r="P82">
+        <v>14</v>
+      </c>
+      <c r="Q82" t="b">
+        <v>1</v>
+      </c>
+      <c r="R82">
+        <v>19</v>
+      </c>
+      <c r="S82">
+        <v>12</v>
+      </c>
+      <c r="T82" t="b">
+        <v>0</v>
+      </c>
+      <c r="U82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>13</v>
+      </c>
+      <c r="B83" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Luxembourg</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Myle</v>
+      </c>
+      <c r="E83" t="str">
+        <v>Hold me</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>10</v>
+      </c>
+      <c r="H83">
+        <v>90</v>
+      </c>
+      <c r="I83">
+        <v>4</v>
+      </c>
+      <c r="J83">
+        <v>74</v>
+      </c>
+      <c r="K83" t="str">
+        <v>Sven Gessinger</v>
+      </c>
+      <c r="L83" t="str">
+        <v>Sven</v>
+      </c>
+      <c r="M83">
+        <v>78</v>
+      </c>
+      <c r="N83">
+        <v>12</v>
+      </c>
+      <c r="O83">
+        <v>8</v>
+      </c>
+      <c r="P83">
+        <v>17</v>
+      </c>
+      <c r="Q83" t="b">
+        <v>1</v>
+      </c>
+      <c r="R83">
+        <v>18</v>
+      </c>
+      <c r="S83">
+        <v>11</v>
+      </c>
+      <c r="T83" t="b">
+        <v>0</v>
+      </c>
+      <c r="U83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>13</v>
+      </c>
+      <c r="B84" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C84" t="str">
+        <v>San Marino</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Irama</v>
+      </c>
+      <c r="E84" t="str">
+        <v>La genesi del tuo colore</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>11</v>
+      </c>
+      <c r="H84">
+        <v>89</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>98</v>
+      </c>
+      <c r="K84" t="str">
+        <v>Pavel Todorov</v>
+      </c>
+      <c r="L84" t="str">
+        <v>Pavel Todorov</v>
+      </c>
+      <c r="M84">
+        <v>75</v>
+      </c>
+      <c r="N84">
+        <v>14</v>
+      </c>
+      <c r="O84">
+        <v>5</v>
+      </c>
+      <c r="P84">
+        <v>15</v>
+      </c>
+      <c r="Q84" t="b">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>11</v>
+      </c>
+      <c r="S84">
+        <v>12</v>
+      </c>
+      <c r="T84" t="b">
+        <v>0</v>
+      </c>
+      <c r="U84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>13</v>
+      </c>
+      <c r="B85" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Norway</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Maria Mena</v>
+      </c>
+      <c r="E85" t="str">
+        <v>It was love</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85">
+        <v>12</v>
+      </c>
+      <c r="H85">
+        <v>82</v>
+      </c>
+      <c r="I85">
+        <v>3</v>
+      </c>
+      <c r="J85">
+        <v>76</v>
+      </c>
+      <c r="K85" t="str">
+        <v>Keiron Lynch</v>
+      </c>
+      <c r="L85" t="str">
+        <v>Keiron</v>
+      </c>
+      <c r="M85">
+        <v>63</v>
+      </c>
+      <c r="N85">
+        <v>19</v>
+      </c>
+      <c r="O85">
+        <v>3</v>
+      </c>
+      <c r="P85">
+        <v>18</v>
+      </c>
+      <c r="Q85" t="b">
+        <v>1</v>
+      </c>
+      <c r="R85">
+        <v>12</v>
+      </c>
+      <c r="S85">
+        <v>12</v>
+      </c>
+      <c r="T85" t="b">
+        <v>0</v>
+      </c>
+      <c r="U85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>13</v>
+      </c>
+      <c r="B86" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Spain</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Ana Mena, Belinda</v>
+      </c>
+      <c r="E86" t="str">
+        <v>Las 12</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>13</v>
+      </c>
+      <c r="H86">
+        <v>78</v>
+      </c>
+      <c r="I86">
+        <v>12</v>
+      </c>
+      <c r="J86">
+        <v>53</v>
+      </c>
+      <c r="K86" t="str">
+        <v>Argiris Maniotas</v>
+      </c>
+      <c r="L86" t="str">
+        <v>Argiris</v>
+      </c>
+      <c r="M86">
+        <v>58</v>
+      </c>
+      <c r="N86">
+        <v>20</v>
+      </c>
+      <c r="O86">
+        <v>16</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="b">
+        <v>1</v>
+      </c>
+      <c r="R86">
+        <v>15</v>
+      </c>
+      <c r="S86">
+        <v>8</v>
+      </c>
+      <c r="T86" t="b">
+        <v>0</v>
+      </c>
+      <c r="U86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>13</v>
+      </c>
+      <c r="B87" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Italy</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Elodie</v>
+      </c>
+      <c r="E87" t="str">
+        <v>Andromeda</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87">
+        <v>14</v>
+      </c>
+      <c r="H87">
+        <v>77</v>
+      </c>
+      <c r="I87">
+        <v>9</v>
+      </c>
+      <c r="J87">
+        <v>54</v>
+      </c>
+      <c r="K87" t="str">
+        <v>Rui Reis</v>
+      </c>
+      <c r="L87" t="str">
+        <v>Rui Reis</v>
+      </c>
+      <c r="M87">
+        <v>53</v>
+      </c>
+      <c r="N87">
+        <v>24</v>
+      </c>
+      <c r="O87">
+        <v>16</v>
+      </c>
+      <c r="P87">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="b">
+        <v>1</v>
+      </c>
+      <c r="R87">
+        <v>16</v>
+      </c>
+      <c r="S87">
+        <v>13</v>
+      </c>
+      <c r="T87" t="b">
+        <v>0</v>
+      </c>
+      <c r="U87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>13</v>
+      </c>
+      <c r="B88" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Serbia</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Teya Dora</v>
+      </c>
+      <c r="E88" t="str">
+        <v>DŽANUM</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="G88">
+        <v>15</v>
+      </c>
+      <c r="H88">
+        <v>74</v>
+      </c>
+      <c r="I88">
+        <v>11</v>
+      </c>
+      <c r="J88">
+        <v>39</v>
+      </c>
+      <c r="K88" t="str">
+        <v>Stefano Di Betta</v>
+      </c>
+      <c r="L88" t="str">
+        <v>Stefan</v>
+      </c>
+      <c r="M88">
+        <v>51</v>
+      </c>
+      <c r="N88">
+        <v>23</v>
+      </c>
+      <c r="O88">
+        <v>7</v>
+      </c>
+      <c r="P88">
+        <v>13</v>
+      </c>
+      <c r="Q88" t="b">
+        <v>1</v>
+      </c>
+      <c r="R88">
+        <v>10</v>
+      </c>
+      <c r="S88">
+        <v>6</v>
+      </c>
+      <c r="T88" t="b">
+        <v>0</v>
+      </c>
+      <c r="U88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>13</v>
+      </c>
+      <c r="B89" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Finland</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Bess</v>
+      </c>
+      <c r="E89" t="str">
+        <v>Sammumation</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>16</v>
+      </c>
+      <c r="H89">
+        <v>69</v>
+      </c>
+      <c r="I89">
+        <v>8</v>
+      </c>
+      <c r="J89">
+        <v>63</v>
+      </c>
+      <c r="K89" t="str">
+        <v>Zé Lança</v>
+      </c>
+      <c r="L89" t="str">
+        <v>Zé Lança</v>
+      </c>
+      <c r="M89">
+        <v>55</v>
+      </c>
+      <c r="N89">
+        <v>14</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89">
+        <v>24</v>
+      </c>
+      <c r="Q89" t="b">
+        <v>1</v>
+      </c>
+      <c r="R89">
+        <v>10</v>
+      </c>
+      <c r="S89">
+        <v>8</v>
+      </c>
+      <c r="T89" t="b">
+        <v>0</v>
+      </c>
+      <c r="U89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>13</v>
+      </c>
+      <c r="B90" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Silbermond</v>
+      </c>
+      <c r="E90" t="str">
+        <v>Verletzen</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>17</v>
+      </c>
+      <c r="H90">
+        <v>61</v>
+      </c>
+      <c r="I90">
+        <v>10</v>
+      </c>
+      <c r="J90">
+        <v>58</v>
+      </c>
+      <c r="K90" t="str">
+        <v>Giovanni Affronte</v>
+      </c>
+      <c r="L90" t="str">
+        <v>Giovanni</v>
+      </c>
+      <c r="M90">
+        <v>53</v>
+      </c>
+      <c r="N90">
+        <v>8</v>
+      </c>
+      <c r="O90">
+        <v>8</v>
+      </c>
+      <c r="P90">
+        <v>19</v>
+      </c>
+      <c r="Q90" t="b">
+        <v>1</v>
+      </c>
+      <c r="R90">
+        <v>15</v>
+      </c>
+      <c r="S90">
+        <v>12</v>
+      </c>
+      <c r="T90" t="b">
+        <v>0</v>
+      </c>
+      <c r="U90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>13</v>
+      </c>
+      <c r="B91" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C91" t="str">
+        <v>France</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Slimane</v>
+      </c>
+      <c r="E91" t="str">
+        <v xml:space="preserve"> Des milliers de je t'aime</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>18</v>
+      </c>
+      <c r="H91">
+        <v>60</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91">
+        <v>86</v>
+      </c>
+      <c r="K91" t="str">
+        <v>Tomislav Roso</v>
+      </c>
+      <c r="L91" t="str">
+        <v>Tom</v>
+      </c>
+      <c r="M91">
+        <v>40</v>
+      </c>
+      <c r="N91">
+        <v>20</v>
+      </c>
+      <c r="O91">
+        <v>13</v>
+      </c>
+      <c r="P91">
+        <v>12</v>
+      </c>
+      <c r="Q91" t="b">
+        <v>1</v>
+      </c>
+      <c r="R91">
+        <v>13</v>
+      </c>
+      <c r="S91">
+        <v>11</v>
+      </c>
+      <c r="T91" t="b">
+        <v>0</v>
+      </c>
+      <c r="U91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>13</v>
+      </c>
+      <c r="B92" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Switzerland</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Zian</v>
+      </c>
+      <c r="E92" t="str">
+        <v>Old again</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>19</v>
+      </c>
+      <c r="H92">
+        <v>51</v>
+      </c>
+      <c r="I92">
+        <v>5</v>
+      </c>
+      <c r="J92">
+        <v>70</v>
+      </c>
+      <c r="K92" t="str">
+        <v>Christian Sandmann</v>
+      </c>
+      <c r="L92" t="str">
+        <v>Christian S.</v>
+      </c>
+      <c r="M92">
+        <v>50</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>11</v>
+      </c>
+      <c r="P92">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="b">
+        <v>1</v>
+      </c>
+      <c r="R92">
+        <v>9</v>
+      </c>
+      <c r="S92">
+        <v>13</v>
+      </c>
+      <c r="T92" t="b">
+        <v>0</v>
+      </c>
+      <c r="U92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>13</v>
+      </c>
+      <c r="B93" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C93" t="str">
+        <v>United Kingdom</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Fred Roberts</v>
+      </c>
+      <c r="E93" t="str">
+        <v>Runaway</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93">
+        <v>20</v>
+      </c>
+      <c r="H93">
+        <v>49</v>
+      </c>
+      <c r="I93">
+        <v>5</v>
+      </c>
+      <c r="J93">
+        <v>70</v>
+      </c>
+      <c r="K93" t="str">
+        <v>Katrin Born</v>
+      </c>
+      <c r="L93" t="str">
+        <v>Katrin</v>
+      </c>
+      <c r="M93">
+        <v>34</v>
+      </c>
+      <c r="N93">
+        <v>15</v>
+      </c>
+      <c r="O93">
+        <v>6</v>
+      </c>
+      <c r="P93">
+        <v>21</v>
+      </c>
+      <c r="Q93" t="b">
+        <v>1</v>
+      </c>
+      <c r="R93">
+        <v>12</v>
+      </c>
+      <c r="S93">
+        <v>12</v>
+      </c>
+      <c r="T93" t="b">
+        <v>0</v>
+      </c>
+      <c r="U93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>13</v>
+      </c>
+      <c r="B94" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C94" t="str">
+        <v>North Macedonia</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Lara</v>
+      </c>
+      <c r="E94" t="str">
+        <v>Dusha</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>21</v>
+      </c>
+      <c r="H94">
+        <v>46</v>
+      </c>
+      <c r="I94">
+        <v>11</v>
+      </c>
+      <c r="J94">
+        <v>54</v>
+      </c>
+      <c r="K94" t="str">
+        <v>??? Christoforos</v>
+      </c>
+      <c r="L94" t="str">
+        <v>Christoforos</v>
+      </c>
+      <c r="M94">
+        <v>25</v>
+      </c>
+      <c r="N94">
+        <v>21</v>
+      </c>
+      <c r="O94">
+        <v>6</v>
+      </c>
+      <c r="P94">
+        <v>16</v>
+      </c>
+      <c r="Q94" t="b">
+        <v>1</v>
+      </c>
+      <c r="R94">
+        <v>10</v>
+      </c>
+      <c r="S94">
+        <v>8</v>
+      </c>
+      <c r="T94" t="b">
+        <v>0</v>
+      </c>
+      <c r="U94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>13</v>
+      </c>
+      <c r="B95" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Ireland</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Kodaline</v>
+      </c>
+      <c r="E95" t="str">
+        <v>Wherever you are</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>22</v>
+      </c>
+      <c r="H95">
+        <v>44</v>
+      </c>
+      <c r="I95">
+        <v>9</v>
+      </c>
+      <c r="J95">
+        <v>62</v>
+      </c>
+      <c r="K95" t="str">
+        <v>Paul Didden</v>
+      </c>
+      <c r="L95" t="str">
+        <v>Paul Didden</v>
+      </c>
+      <c r="M95">
+        <v>20</v>
+      </c>
+      <c r="N95">
+        <v>24</v>
+      </c>
+      <c r="O95">
+        <v>15</v>
+      </c>
+      <c r="P95">
+        <v>7</v>
+      </c>
+      <c r="Q95" t="b">
+        <v>1</v>
+      </c>
+      <c r="R95">
+        <v>7</v>
+      </c>
+      <c r="S95">
+        <v>14</v>
+      </c>
+      <c r="T95" t="b">
+        <v>0</v>
+      </c>
+      <c r="U95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>13</v>
+      </c>
+      <c r="B96" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Monaco</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Mylène Farmer feat. LP</v>
+      </c>
+      <c r="E96" t="str">
+        <v>N'oublie pas</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>23</v>
+      </c>
+      <c r="H96">
+        <v>41</v>
+      </c>
+      <c r="I96">
+        <v>10</v>
+      </c>
+      <c r="J96">
+        <v>45</v>
+      </c>
+      <c r="K96" t="str">
+        <v>Mathias Christiansson</v>
+      </c>
+      <c r="L96" t="str">
+        <v>Mathias</v>
+      </c>
+      <c r="M96">
+        <v>5</v>
+      </c>
+      <c r="N96">
+        <v>36</v>
+      </c>
+      <c r="O96">
+        <v>5</v>
+      </c>
+      <c r="P96">
+        <v>20</v>
+      </c>
+      <c r="Q96" t="b">
+        <v>1</v>
+      </c>
+      <c r="R96">
+        <v>7</v>
+      </c>
+      <c r="S96">
+        <v>6</v>
+      </c>
+      <c r="T96" t="b">
+        <v>0</v>
+      </c>
+      <c r="U96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>13</v>
+      </c>
+      <c r="B97" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Denmark</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Ida Laurberg</v>
+      </c>
+      <c r="E97" t="str">
+        <v>Terrier</v>
+      </c>
+      <c r="F97" t="str">
+        <v>F</v>
+      </c>
+      <c r="G97">
+        <v>24</v>
+      </c>
+      <c r="H97">
+        <v>29</v>
+      </c>
+      <c r="I97" t="str">
+        <v/>
+      </c>
+      <c r="J97" t="str">
+        <v/>
+      </c>
+      <c r="K97" t="str">
+        <v>Santi Balderas Blanco</v>
+      </c>
+      <c r="L97" t="str">
+        <v>Santi Balderas Blanco</v>
+      </c>
+      <c r="M97">
+        <v>29</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97" t="str">
+        <v/>
+      </c>
+      <c r="P97">
+        <v>9</v>
+      </c>
+      <c r="Q97" t="b">
+        <v>1</v>
+      </c>
+      <c r="R97">
+        <v>6</v>
+      </c>
+      <c r="S97" t="str">
+        <v/>
+      </c>
+      <c r="T97" t="b">
+        <v>0</v>
+      </c>
+      <c r="U97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>13</v>
+      </c>
+      <c r="B98" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Croatia</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Tarapana Band</v>
+      </c>
+      <c r="E98" t="str">
+        <v>MOMAČKA</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98">
+        <v>25</v>
+      </c>
+      <c r="H98">
+        <v>11</v>
+      </c>
+      <c r="I98">
+        <v>12</v>
+      </c>
+      <c r="J98">
+        <v>35</v>
+      </c>
+      <c r="K98" t="str">
+        <v>Ricardo Gomes</v>
+      </c>
+      <c r="L98" t="str">
+        <v>Ricardo Gomes</v>
+      </c>
+      <c r="M98">
+        <v>11</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="P98">
+        <v>22</v>
+      </c>
+      <c r="Q98" t="b">
+        <v>1</v>
+      </c>
+      <c r="R98">
+        <v>3</v>
+      </c>
+      <c r="S98">
+        <v>6</v>
+      </c>
+      <c r="T98" t="b">
+        <v>0</v>
+      </c>
+      <c r="U98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>13</v>
+      </c>
+      <c r="B99" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Greece</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Klavdia</v>
+      </c>
+      <c r="E99" t="str">
+        <v>Holy water</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" t="str">
+        <v/>
+      </c>
+      <c r="H99" t="str">
+        <v/>
+      </c>
+      <c r="I99">
+        <v>13</v>
+      </c>
+      <c r="J99">
+        <v>46</v>
+      </c>
+      <c r="K99" t="str">
+        <v>Richard Cox</v>
+      </c>
+      <c r="L99" t="str">
+        <v>Richard Cox</v>
+      </c>
+      <c r="M99" t="str">
+        <v/>
+      </c>
+      <c r="N99" t="str">
+        <v/>
+      </c>
+      <c r="O99">
+        <v>14</v>
+      </c>
+      <c r="P99" t="str">
+        <v/>
+      </c>
+      <c r="Q99" t="b">
+        <v>0</v>
+      </c>
+      <c r="R99" t="str">
+        <v/>
+      </c>
+      <c r="S99">
+        <v>10</v>
+      </c>
+      <c r="T99" t="b">
+        <v>0</v>
+      </c>
+      <c r="U99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>13</v>
+      </c>
+      <c r="B100" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Ukraine</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Etolubov</v>
+      </c>
+      <c r="E100" t="str">
+        <v>Притяжение</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" t="str">
+        <v/>
+      </c>
+      <c r="H100" t="str">
+        <v/>
+      </c>
+      <c r="I100">
+        <v>14</v>
+      </c>
+      <c r="J100">
+        <v>46</v>
+      </c>
+      <c r="K100" t="str">
+        <v>Hendrik Wolff</v>
+      </c>
+      <c r="L100" t="str">
+        <v>Hendrik</v>
+      </c>
+      <c r="M100" t="str">
+        <v/>
+      </c>
+      <c r="N100" t="str">
+        <v/>
+      </c>
+      <c r="O100">
+        <v>4</v>
+      </c>
+      <c r="P100" t="str">
+        <v/>
+      </c>
+      <c r="Q100" t="b">
+        <v>0</v>
+      </c>
+      <c r="R100" t="str">
+        <v/>
+      </c>
+      <c r="S100">
+        <v>10</v>
+      </c>
+      <c r="T100" t="b">
+        <v>0</v>
+      </c>
+      <c r="U100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>13</v>
+      </c>
+      <c r="B101" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Morocco</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Faouzia</v>
+      </c>
+      <c r="E101" t="str">
+        <v>Puppets</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101" t="str">
+        <v/>
+      </c>
+      <c r="H101" t="str">
+        <v/>
+      </c>
+      <c r="I101">
+        <v>15</v>
+      </c>
+      <c r="J101">
+        <v>45</v>
+      </c>
+      <c r="K101" t="str">
+        <v>Paolo Bortoli</v>
+      </c>
+      <c r="L101" t="str">
+        <v>Paolo</v>
+      </c>
+      <c r="M101" t="str">
+        <v/>
+      </c>
+      <c r="N101" t="str">
+        <v/>
+      </c>
+      <c r="O101">
+        <v>2</v>
+      </c>
+      <c r="P101" t="str">
+        <v/>
+      </c>
+      <c r="Q101" t="b">
+        <v>0</v>
+      </c>
+      <c r="R101" t="str">
+        <v/>
+      </c>
+      <c r="S101">
+        <v>11</v>
+      </c>
+      <c r="T101" t="b">
+        <v>0</v>
+      </c>
+      <c r="U101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>13</v>
+      </c>
+      <c r="B102" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Romania</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Inna</v>
+      </c>
+      <c r="E102" t="str">
+        <v>Yummy</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" t="str">
+        <v/>
+      </c>
+      <c r="H102" t="str">
+        <v/>
+      </c>
+      <c r="I102">
+        <v>16</v>
+      </c>
+      <c r="J102">
+        <v>23</v>
+      </c>
+      <c r="K102" t="str">
+        <v>Phil Bailey</v>
+      </c>
+      <c r="L102" t="str">
+        <v>Phil Bailey</v>
+      </c>
+      <c r="M102" t="str">
+        <v/>
+      </c>
+      <c r="N102" t="str">
+        <v/>
+      </c>
+      <c r="O102">
+        <v>12</v>
+      </c>
+      <c r="P102" t="str">
+        <v/>
+      </c>
+      <c r="Q102" t="b">
+        <v>0</v>
+      </c>
+      <c r="R102" t="str">
+        <v/>
+      </c>
+      <c r="S102">
+        <v>6</v>
+      </c>
+      <c r="T102" t="b">
+        <v>0</v>
+      </c>
+      <c r="U102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>13</v>
+      </c>
+      <c r="B103" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Russia</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Shaman</v>
+      </c>
+      <c r="E103" t="str">
+        <v>МЫ (Красная площадь)</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103" t="str">
+        <v/>
+      </c>
+      <c r="H103" t="str">
+        <v/>
+      </c>
+      <c r="I103">
+        <v>13</v>
+      </c>
+      <c r="J103">
+        <v>29</v>
+      </c>
+      <c r="K103" t="str">
+        <v>Francesco Perrone</v>
+      </c>
+      <c r="L103" t="str">
+        <v>Francesco Perrone</v>
+      </c>
+      <c r="M103" t="str">
+        <v/>
+      </c>
+      <c r="N103" t="str">
+        <v/>
+      </c>
+      <c r="O103">
+        <v>4</v>
+      </c>
+      <c r="P103" t="str">
+        <v/>
+      </c>
+      <c r="Q103" t="b">
+        <v>0</v>
+      </c>
+      <c r="R103" t="str">
+        <v/>
+      </c>
+      <c r="S103">
+        <v>6</v>
+      </c>
+      <c r="T103" t="b">
+        <v>0</v>
+      </c>
+      <c r="U103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>13</v>
+      </c>
+      <c r="B104" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Andorra</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Natalia</v>
+      </c>
+      <c r="E104" t="str">
+        <v>Cien x cien</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="G104" t="str">
+        <v/>
+      </c>
+      <c r="H104" t="str">
+        <v/>
+      </c>
+      <c r="I104">
+        <v>14</v>
+      </c>
+      <c r="J104">
+        <v>27</v>
+      </c>
+      <c r="K104" t="str">
+        <v>Edu Padrós Creus</v>
+      </c>
+      <c r="L104" t="str">
+        <v>Edu Padrós Padrós.Creus</v>
+      </c>
+      <c r="M104" t="str">
+        <v/>
+      </c>
+      <c r="N104" t="str">
+        <v/>
+      </c>
+      <c r="O104">
+        <v>10</v>
+      </c>
+      <c r="P104" t="str">
+        <v/>
+      </c>
+      <c r="Q104" t="b">
+        <v>0</v>
+      </c>
+      <c r="R104" t="str">
+        <v/>
+      </c>
+      <c r="S104">
+        <v>7</v>
+      </c>
+      <c r="T104" t="b">
+        <v>0</v>
+      </c>
+      <c r="U104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>13</v>
+      </c>
+      <c r="B105" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Türkiye</v>
+      </c>
+      <c r="D105" t="str">
+        <v>Hadise</v>
+      </c>
+      <c r="E105" t="str">
+        <v>Feryat</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105" t="str">
+        <v/>
+      </c>
+      <c r="H105" t="str">
+        <v/>
+      </c>
+      <c r="I105">
+        <v>15</v>
+      </c>
+      <c r="J105">
+        <v>23</v>
+      </c>
+      <c r="K105" t="str">
+        <v>Rodrigo Erazo</v>
+      </c>
+      <c r="L105" t="str">
+        <v>Rodrigo Erazo</v>
+      </c>
+      <c r="M105" t="str">
+        <v/>
+      </c>
+      <c r="N105" t="str">
+        <v/>
+      </c>
+      <c r="O105">
+        <v>13</v>
+      </c>
+      <c r="P105" t="str">
+        <v/>
+      </c>
+      <c r="Q105" t="b">
+        <v>0</v>
+      </c>
+      <c r="R105" t="str">
+        <v/>
+      </c>
+      <c r="S105">
+        <v>6</v>
+      </c>
+      <c r="T105" t="b">
+        <v>0</v>
+      </c>
+      <c r="U105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>13</v>
+      </c>
+      <c r="B106" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Azerbaijan</v>
+      </c>
+      <c r="D106" t="str">
+        <v>Aisel</v>
+      </c>
+      <c r="E106" t="str">
+        <v>Qaradan Qara</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106" t="str">
+        <v/>
+      </c>
+      <c r="H106" t="str">
+        <v/>
+      </c>
+      <c r="I106">
+        <v>16</v>
+      </c>
+      <c r="J106">
+        <v>21</v>
+      </c>
+      <c r="K106" t="str">
+        <v>Nijat Badalov</v>
+      </c>
+      <c r="L106" t="str">
+        <v>Nijat</v>
+      </c>
+      <c r="M106" t="str">
+        <v/>
+      </c>
+      <c r="N106" t="str">
+        <v/>
+      </c>
+      <c r="O106">
+        <v>15</v>
+      </c>
+      <c r="P106" t="str">
+        <v/>
+      </c>
+      <c r="Q106" t="b">
+        <v>0</v>
+      </c>
+      <c r="R106" t="str">
+        <v/>
+      </c>
+      <c r="S106">
+        <v>4</v>
+      </c>
+      <c r="T106" t="b">
+        <v>0</v>
+      </c>
+      <c r="U106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>13</v>
+      </c>
+      <c r="B107" t="str">
+        <v>EMSC 2303</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Bulgaria</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Coyot x Alma</v>
+      </c>
+      <c r="E107" t="str">
+        <v>Scared</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107" t="str">
+        <v/>
+      </c>
+      <c r="H107" t="str">
+        <v/>
+      </c>
+      <c r="I107" t="str">
+        <v>DISQUALIFIED</v>
+      </c>
+      <c r="J107">
+        <v>60</v>
+      </c>
+      <c r="K107" t="str">
+        <v>???</v>
+      </c>
+      <c r="L107" t="str">
+        <v/>
+      </c>
+      <c r="M107" t="str">
+        <v/>
+      </c>
+      <c r="N107" t="str">
+        <v/>
+      </c>
+      <c r="O107">
+        <v>17</v>
+      </c>
+      <c r="P107" t="str">
+        <v/>
+      </c>
+      <c r="Q107" t="b">
+        <v>0</v>
+      </c>
+      <c r="R107" t="str">
+        <v/>
+      </c>
+      <c r="S107">
+        <v>13</v>
+      </c>
+      <c r="T107" t="b">
+        <v>0</v>
+      </c>
+      <c r="U107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>14</v>
+      </c>
+      <c r="B108" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C108" t="str">
+        <v>San Marino</v>
+      </c>
+      <c r="D108" t="str">
+        <v>Annalisa</v>
+      </c>
+      <c r="E108" t="str">
+        <v>Ragazza sola</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>172</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>104</v>
+      </c>
+      <c r="K108" t="str">
+        <v>Jesus Santamaria Rodriguez</v>
+      </c>
+      <c r="L108" t="str">
+        <v>Jesus</v>
+      </c>
+      <c r="M108">
+        <v>130</v>
+      </c>
+      <c r="N108">
+        <v>42</v>
+      </c>
+      <c r="O108">
+        <v>17</v>
+      </c>
+      <c r="P108">
+        <v>8</v>
+      </c>
+      <c r="Q108" t="b">
+        <v>1</v>
+      </c>
+      <c r="R108">
+        <v>25</v>
+      </c>
+      <c r="S108">
+        <v>16</v>
+      </c>
+      <c r="T108" t="b">
+        <v>0</v>
+      </c>
+      <c r="U108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>14</v>
+      </c>
+      <c r="B109" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C109" t="str">
+        <v>United Kingdom</v>
+      </c>
+      <c r="D109" t="str">
+        <v>James TW</v>
+      </c>
+      <c r="E109" t="str">
+        <v>Hopeless romantics</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>2</v>
+      </c>
+      <c r="H109">
+        <v>163</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>107</v>
+      </c>
+      <c r="K109" t="str">
+        <v>Christian Sandmann</v>
+      </c>
+      <c r="L109" t="str">
+        <v>Christian S.</v>
+      </c>
+      <c r="M109">
+        <v>109</v>
+      </c>
+      <c r="N109">
+        <v>54</v>
+      </c>
+      <c r="O109">
+        <v>12</v>
+      </c>
+      <c r="P109">
+        <v>9</v>
+      </c>
+      <c r="Q109" t="b">
+        <v>1</v>
+      </c>
+      <c r="R109">
+        <v>24</v>
+      </c>
+      <c r="S109">
+        <v>15</v>
+      </c>
+      <c r="T109" t="b">
+        <v>0</v>
+      </c>
+      <c r="U109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>14</v>
+      </c>
+      <c r="B110" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Spain</v>
+      </c>
+      <c r="D110" t="str">
+        <v>Agoney</v>
+      </c>
+      <c r="E110" t="str">
+        <v>¿Quién Pide Al Cielo Por Ti?</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>3</v>
+      </c>
+      <c r="H110">
+        <v>133</v>
+      </c>
+      <c r="I110">
+        <v>4</v>
+      </c>
+      <c r="J110">
+        <v>77</v>
+      </c>
+      <c r="K110" t="str">
+        <v>Richard Triendl</v>
+      </c>
+      <c r="L110" t="str">
+        <v>Richard T</v>
+      </c>
+      <c r="M110">
+        <v>108</v>
+      </c>
+      <c r="N110">
+        <v>25</v>
+      </c>
+      <c r="O110">
+        <v>15</v>
+      </c>
+      <c r="P110">
+        <v>7</v>
+      </c>
+      <c r="Q110" t="b">
+        <v>1</v>
+      </c>
+      <c r="R110">
+        <v>17</v>
+      </c>
+      <c r="S110">
+        <v>14</v>
+      </c>
+      <c r="T110" t="b">
+        <v>0</v>
+      </c>
+      <c r="U110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>14</v>
+      </c>
+      <c r="B111" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C111" t="str">
+        <v>France</v>
+      </c>
+      <c r="D111" t="str">
+        <v>Clara Luciani</v>
+      </c>
+      <c r="E111" t="str">
+        <v>Respire encore</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>4</v>
+      </c>
+      <c r="H111">
+        <v>119</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111">
+        <v>86</v>
+      </c>
+      <c r="K111" t="str">
+        <v>Mile Gojcevic</v>
+      </c>
+      <c r="L111" t="str">
+        <v>Mile</v>
+      </c>
+      <c r="M111">
+        <v>80</v>
+      </c>
+      <c r="N111">
+        <v>39</v>
+      </c>
+      <c r="O111">
+        <v>9</v>
+      </c>
+      <c r="P111">
+        <v>1</v>
+      </c>
+      <c r="Q111" t="b">
+        <v>1</v>
+      </c>
+      <c r="R111">
+        <v>17</v>
+      </c>
+      <c r="S111">
+        <v>12</v>
+      </c>
+      <c r="T111" t="b">
+        <v>0</v>
+      </c>
+      <c r="U111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>14</v>
+      </c>
+      <c r="B112" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="D112" t="str">
+        <v>Delta Goodrem</v>
+      </c>
+      <c r="E112" t="str">
+        <v>Back to your heart</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112">
+        <v>5</v>
+      </c>
+      <c r="H112">
+        <v>116</v>
+      </c>
+      <c r="I112">
+        <v>4</v>
+      </c>
+      <c r="J112">
+        <v>84</v>
+      </c>
+      <c r="K112" t="str">
+        <v>Sven Gessinger</v>
+      </c>
+      <c r="L112" t="str">
+        <v>Sven G.</v>
+      </c>
+      <c r="M112">
+        <v>99</v>
+      </c>
+      <c r="N112">
+        <v>17</v>
+      </c>
+      <c r="O112">
+        <v>12</v>
+      </c>
+      <c r="P112">
+        <v>10</v>
+      </c>
+      <c r="Q112" t="b">
+        <v>1</v>
+      </c>
+      <c r="R112">
+        <v>22</v>
+      </c>
+      <c r="S112">
+        <v>12</v>
+      </c>
+      <c r="T112" t="b">
+        <v>0</v>
+      </c>
+      <c r="U112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>14</v>
+      </c>
+      <c r="B113" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Albania</v>
+      </c>
+      <c r="D113" t="str">
+        <v>Mimoza</v>
+      </c>
+      <c r="E113" t="str">
+        <v>Young queen</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="G113">
+        <v>6</v>
+      </c>
+      <c r="H113">
+        <v>102</v>
+      </c>
+      <c r="I113">
+        <v>5</v>
+      </c>
+      <c r="J113">
+        <v>80</v>
+      </c>
+      <c r="K113" t="str">
+        <v>Rui Reis</v>
+      </c>
+      <c r="L113" t="str">
+        <v>Rui Reis</v>
+      </c>
+      <c r="M113">
+        <v>67</v>
+      </c>
+      <c r="N113">
+        <v>35</v>
+      </c>
+      <c r="O113">
+        <v>10</v>
+      </c>
+      <c r="P113">
+        <v>25</v>
+      </c>
+      <c r="Q113" t="b">
+        <v>1</v>
+      </c>
+      <c r="R113">
+        <v>17</v>
+      </c>
+      <c r="S113">
+        <v>14</v>
+      </c>
+      <c r="T113" t="b">
+        <v>0</v>
+      </c>
+      <c r="U113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>14</v>
+      </c>
+      <c r="B114" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Norway</v>
+      </c>
+      <c r="D114" t="str">
+        <v>Moyka</v>
+      </c>
+      <c r="E114" t="str">
+        <v>Rear view</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>7</v>
+      </c>
+      <c r="H114">
+        <v>99</v>
+      </c>
+      <c r="I114">
+        <v>5</v>
+      </c>
+      <c r="J114">
+        <v>72</v>
+      </c>
+      <c r="K114" t="str">
+        <v>Paolo Bortoli</v>
+      </c>
+      <c r="L114" t="str">
+        <v>Paolo Bortoli</v>
+      </c>
+      <c r="M114">
+        <v>71</v>
+      </c>
+      <c r="N114">
+        <v>28</v>
+      </c>
+      <c r="O114">
+        <v>13</v>
+      </c>
+      <c r="P114">
+        <v>6</v>
+      </c>
+      <c r="Q114" t="b">
+        <v>1</v>
+      </c>
+      <c r="R114">
+        <v>19</v>
+      </c>
+      <c r="S114">
+        <v>12</v>
+      </c>
+      <c r="T114" t="b">
+        <v>0</v>
+      </c>
+      <c r="U114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>14</v>
+      </c>
+      <c r="B115" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Türkiye</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Selin</v>
+      </c>
+      <c r="E115" t="str">
+        <v>Lovers hurricane</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+      <c r="G115">
+        <v>8</v>
+      </c>
+      <c r="H115">
+        <v>97</v>
+      </c>
+      <c r="I115">
+        <v>12</v>
+      </c>
+      <c r="J115">
+        <v>46</v>
+      </c>
+      <c r="K115" t="str">
+        <v>Francesco Perrone</v>
+      </c>
+      <c r="L115" t="str">
+        <v>Francesco Perrone</v>
+      </c>
+      <c r="M115">
+        <v>79</v>
+      </c>
+      <c r="N115">
+        <v>18</v>
+      </c>
+      <c r="O115">
+        <v>15</v>
+      </c>
+      <c r="P115">
+        <v>22</v>
+      </c>
+      <c r="Q115" t="b">
+        <v>1</v>
+      </c>
+      <c r="R115">
+        <v>16</v>
+      </c>
+      <c r="S115">
+        <v>8</v>
+      </c>
+      <c r="T115" t="b">
+        <v>0</v>
+      </c>
+      <c r="U115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>14</v>
+      </c>
+      <c r="B116" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Luxembourg</v>
+      </c>
+      <c r="D116" t="str">
+        <v>Tim Dup</v>
+      </c>
+      <c r="E116" t="str">
+        <v>Amor</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116">
+        <v>9</v>
+      </c>
+      <c r="H116">
+        <v>87</v>
+      </c>
+      <c r="I116">
+        <v>6</v>
+      </c>
+      <c r="J116">
+        <v>70</v>
+      </c>
+      <c r="K116" t="str">
+        <v>Hendrik Wolff</v>
+      </c>
+      <c r="L116" t="str">
+        <v>Hendrik</v>
+      </c>
+      <c r="M116">
+        <v>49</v>
+      </c>
+      <c r="N116">
+        <v>38</v>
+      </c>
+      <c r="O116">
+        <v>13</v>
+      </c>
+      <c r="P116">
+        <v>5</v>
+      </c>
+      <c r="Q116" t="b">
+        <v>1</v>
+      </c>
+      <c r="R116">
+        <v>12</v>
+      </c>
+      <c r="S116">
+        <v>11</v>
+      </c>
+      <c r="T116" t="b">
+        <v>0</v>
+      </c>
+      <c r="U116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>14</v>
+      </c>
+      <c r="B117" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Denmark</v>
+      </c>
+      <c r="D117" t="str">
+        <v>Christopher</v>
+      </c>
+      <c r="E117" t="str">
+        <v>A beautiful life</v>
+      </c>
+      <c r="F117">
+        <v>2</v>
+      </c>
+      <c r="G117">
+        <v>10</v>
+      </c>
+      <c r="H117">
+        <v>84</v>
+      </c>
+      <c r="I117">
+        <v>2</v>
+      </c>
+      <c r="J117">
+        <v>88</v>
+      </c>
+      <c r="K117" t="str">
+        <v>Martin Carlsholt Unger</v>
+      </c>
+      <c r="L117" t="str">
+        <v>Martin Carlshollt Unger</v>
+      </c>
+      <c r="M117">
+        <v>60</v>
+      </c>
+      <c r="N117">
+        <v>24</v>
+      </c>
+      <c r="O117">
+        <v>7</v>
+      </c>
+      <c r="P117">
+        <v>13</v>
+      </c>
+      <c r="Q117" t="b">
+        <v>1</v>
+      </c>
+      <c r="R117">
+        <v>17</v>
+      </c>
+      <c r="S117">
+        <v>15</v>
+      </c>
+      <c r="T117" t="b">
+        <v>0</v>
+      </c>
+      <c r="U117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>14</v>
+      </c>
+      <c r="B118" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Sweden</v>
+      </c>
+      <c r="D118" t="str">
+        <v>Zara Larsson</v>
+      </c>
+      <c r="E118" t="str">
+        <v>Can't tame her</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118">
+        <v>11</v>
+      </c>
+      <c r="H118">
+        <v>72</v>
+      </c>
+      <c r="I118">
+        <v>3</v>
+      </c>
+      <c r="J118">
+        <v>86</v>
+      </c>
+      <c r="K118" t="str">
+        <v>Pavel Todorov</v>
+      </c>
+      <c r="L118" t="str">
+        <v>Pavel Todorov</v>
+      </c>
+      <c r="M118">
+        <v>65</v>
+      </c>
+      <c r="N118">
+        <v>7</v>
+      </c>
+      <c r="O118">
+        <v>4</v>
+      </c>
+      <c r="P118">
+        <v>20</v>
+      </c>
+      <c r="Q118" t="b">
+        <v>1</v>
+      </c>
+      <c r="R118">
+        <v>11</v>
+      </c>
+      <c r="S118">
+        <v>11</v>
+      </c>
+      <c r="T118" t="b">
+        <v>0</v>
+      </c>
+      <c r="U118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>14</v>
+      </c>
+      <c r="B119" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C119" t="str">
+        <v>Italy</v>
+      </c>
+      <c r="D119" t="str">
+        <v>Marco Mengoni &amp; Elodie</v>
+      </c>
+      <c r="E119" t="str">
+        <v>Pazza musica</v>
+      </c>
+      <c r="F119">
+        <v>2</v>
+      </c>
+      <c r="G119">
+        <v>12</v>
+      </c>
+      <c r="H119">
+        <v>69</v>
+      </c>
+      <c r="I119">
+        <v>10</v>
+      </c>
+      <c r="J119">
+        <v>47</v>
+      </c>
+      <c r="K119" t="str">
+        <v>Argiris Maniotas</v>
+      </c>
+      <c r="L119" t="str">
+        <v>Argiris</v>
+      </c>
+      <c r="M119">
+        <v>57</v>
+      </c>
+      <c r="N119">
+        <v>12</v>
+      </c>
+      <c r="O119">
+        <v>1</v>
+      </c>
+      <c r="P119">
+        <v>16</v>
+      </c>
+      <c r="Q119" t="b">
+        <v>1</v>
+      </c>
+      <c r="R119">
+        <v>12</v>
+      </c>
+      <c r="S119">
+        <v>10</v>
+      </c>
+      <c r="T119" t="b">
+        <v>0</v>
+      </c>
+      <c r="U119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>14</v>
+      </c>
+      <c r="B120" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Israel</v>
+      </c>
+      <c r="D120" t="str">
+        <v>Noa Kirel</v>
+      </c>
+      <c r="E120" t="str">
+        <v>Deja vu</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>13</v>
+      </c>
+      <c r="H120">
+        <v>67</v>
+      </c>
+      <c r="I120">
+        <v>6</v>
+      </c>
+      <c r="J120">
+        <v>65</v>
+      </c>
+      <c r="K120" t="str">
+        <v>Tomislav Roso</v>
+      </c>
+      <c r="L120" t="str">
+        <v>Tom</v>
+      </c>
+      <c r="M120">
+        <v>43</v>
+      </c>
+      <c r="N120">
+        <v>24</v>
+      </c>
+      <c r="O120">
+        <v>1</v>
+      </c>
+      <c r="P120">
+        <v>23</v>
+      </c>
+      <c r="Q120" t="b">
+        <v>1</v>
+      </c>
+      <c r="R120">
+        <v>13</v>
+      </c>
+      <c r="S120">
+        <v>10</v>
+      </c>
+      <c r="T120" t="b">
+        <v>0</v>
+      </c>
+      <c r="U120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>14</v>
+      </c>
+      <c r="B121" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C121" t="str">
+        <v>Switzerland</v>
+      </c>
+      <c r="D121" t="str">
+        <v>Stefanie Heinzmann</v>
+      </c>
+      <c r="E121" t="str">
+        <v>Carry the world</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+      <c r="G121">
+        <v>14</v>
+      </c>
+      <c r="H121">
+        <v>64</v>
+      </c>
+      <c r="I121">
+        <v>8</v>
+      </c>
+      <c r="J121">
+        <v>52</v>
+      </c>
+      <c r="K121" t="str">
+        <v>Santi Balderas Blanco</v>
+      </c>
+      <c r="L121" t="str">
+        <v>Santi Balderas Blanco</v>
+      </c>
+      <c r="M121">
+        <v>50</v>
+      </c>
+      <c r="N121">
+        <v>14</v>
+      </c>
+      <c r="O121">
+        <v>14</v>
+      </c>
+      <c r="P121">
+        <v>3</v>
+      </c>
+      <c r="Q121" t="b">
+        <v>1</v>
+      </c>
+      <c r="R121">
+        <v>13</v>
+      </c>
+      <c r="S121">
+        <v>9</v>
+      </c>
+      <c r="T121" t="b">
+        <v>0</v>
+      </c>
+      <c r="U121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>14</v>
+      </c>
+      <c r="B122" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C122" t="str">
+        <v>Portugal</v>
+      </c>
+      <c r="D122" t="str">
+        <v>Fernando Daniel</v>
+      </c>
+      <c r="E122" t="str">
+        <v>Prometo</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>15</v>
+      </c>
+      <c r="H122">
+        <v>60</v>
+      </c>
+      <c r="I122">
+        <v>3</v>
+      </c>
+      <c r="J122">
+        <v>85</v>
+      </c>
+      <c r="K122" t="str">
+        <v>Mauro Correia</v>
+      </c>
+      <c r="L122" t="str">
+        <v>Mauro Correia</v>
+      </c>
+      <c r="M122">
+        <v>49</v>
+      </c>
+      <c r="N122">
+        <v>11</v>
+      </c>
+      <c r="O122">
+        <v>10</v>
+      </c>
+      <c r="P122">
+        <v>2</v>
+      </c>
+      <c r="Q122" t="b">
+        <v>1</v>
+      </c>
+      <c r="R122">
+        <v>9</v>
+      </c>
+      <c r="S122">
+        <v>14</v>
+      </c>
+      <c r="T122" t="b">
+        <v>0</v>
+      </c>
+      <c r="U122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>14</v>
+      </c>
+      <c r="B123" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C123" t="str">
+        <v>Netherlands</v>
+      </c>
+      <c r="D123" t="str">
+        <v>Avalan</v>
+      </c>
+      <c r="E123" t="str">
+        <v>World we know</v>
+      </c>
+      <c r="F123">
+        <v>2</v>
+      </c>
+      <c r="G123">
+        <v>16</v>
+      </c>
+      <c r="H123">
+        <v>58</v>
+      </c>
+      <c r="I123">
+        <v>7</v>
+      </c>
+      <c r="J123">
+        <v>58</v>
+      </c>
+      <c r="K123" t="str">
+        <v>Joaquin Montesinos</v>
+      </c>
+      <c r="L123" t="str">
+        <v>Joaquin Montesinos</v>
+      </c>
+      <c r="M123">
+        <v>35</v>
+      </c>
+      <c r="N123">
+        <v>23</v>
+      </c>
+      <c r="O123">
+        <v>5</v>
+      </c>
+      <c r="P123">
+        <v>21</v>
+      </c>
+      <c r="Q123" t="b">
+        <v>1</v>
+      </c>
+      <c r="R123">
+        <v>9</v>
+      </c>
+      <c r="S123">
+        <v>12</v>
+      </c>
+      <c r="T123" t="b">
+        <v>0</v>
+      </c>
+      <c r="U123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>14</v>
+      </c>
+      <c r="B124" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C124" t="str">
+        <v>Monaco</v>
+      </c>
+      <c r="D124" t="str">
+        <v>Roulez Jeunesse</v>
+      </c>
+      <c r="E124" t="str">
+        <v>Dis le moi quand même</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>17</v>
+      </c>
+      <c r="H124">
+        <v>50</v>
+      </c>
+      <c r="I124">
+        <v>12</v>
+      </c>
+      <c r="J124">
+        <v>47</v>
+      </c>
+      <c r="K124" t="str">
+        <v>Paul Didden</v>
+      </c>
+      <c r="L124" t="str">
+        <v>Paul Didden</v>
+      </c>
+      <c r="M124">
+        <v>47</v>
+      </c>
+      <c r="N124">
+        <v>3</v>
+      </c>
+      <c r="O124">
+        <v>7</v>
+      </c>
+      <c r="P124">
+        <v>18</v>
+      </c>
+      <c r="Q124" t="b">
+        <v>1</v>
+      </c>
+      <c r="R124">
+        <v>11</v>
+      </c>
+      <c r="S124">
+        <v>9</v>
+      </c>
+      <c r="T124" t="b">
+        <v>0</v>
+      </c>
+      <c r="U124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>14</v>
+      </c>
+      <c r="B125" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C125" t="str">
+        <v>Russia</v>
+      </c>
+      <c r="D125" t="str">
+        <v>Anastasia Ukolova</v>
+      </c>
+      <c r="E125" t="str">
+        <v>Ty zabudesh</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>18</v>
+      </c>
+      <c r="H125">
+        <v>48</v>
+      </c>
+      <c r="I125">
+        <v>8</v>
+      </c>
+      <c r="J125">
+        <v>63</v>
+      </c>
+      <c r="K125" t="str">
+        <v>??? Jonathan Zuñiga</v>
+      </c>
+      <c r="L125" t="str">
+        <v>Jonathan Zuñiga</v>
+      </c>
+      <c r="M125">
+        <v>29</v>
+      </c>
+      <c r="N125">
+        <v>19</v>
+      </c>
+      <c r="O125">
+        <v>6</v>
+      </c>
+      <c r="P125">
+        <v>14</v>
+      </c>
+      <c r="Q125" t="b">
+        <v>1</v>
+      </c>
+      <c r="R125">
+        <v>11</v>
+      </c>
+      <c r="S125">
+        <v>10</v>
+      </c>
+      <c r="T125" t="b">
+        <v>0</v>
+      </c>
+      <c r="U125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>14</v>
+      </c>
+      <c r="B126" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C126" t="str">
+        <v>Cyprus</v>
+      </c>
+      <c r="D126" t="str">
+        <v>Eleni Foureira</v>
+      </c>
+      <c r="E126" t="str">
+        <v>Kolima</v>
+      </c>
+      <c r="F126" t="str">
+        <v>F</v>
+      </c>
+      <c r="G126">
+        <v>19</v>
+      </c>
+      <c r="H126">
+        <v>48</v>
+      </c>
+      <c r="I126" t="str">
+        <v/>
+      </c>
+      <c r="J126" t="str">
+        <v/>
+      </c>
+      <c r="K126" t="str">
+        <v>Michalis Terzis</v>
+      </c>
+      <c r="L126" t="str">
+        <v>Michael</v>
+      </c>
+      <c r="M126">
+        <v>43</v>
+      </c>
+      <c r="N126">
+        <v>5</v>
+      </c>
+      <c r="O126" t="str">
+        <v/>
+      </c>
+      <c r="P126">
+        <v>17</v>
+      </c>
+      <c r="Q126" t="b">
+        <v>1</v>
+      </c>
+      <c r="R126">
+        <v>9</v>
+      </c>
+      <c r="S126" t="str">
+        <v/>
+      </c>
+      <c r="T126" t="b">
+        <v>0</v>
+      </c>
+      <c r="U126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>14</v>
+      </c>
+      <c r="B127" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C127" t="str">
+        <v>Ireland</v>
+      </c>
+      <c r="D127" t="str">
+        <v>Brooke</v>
+      </c>
+      <c r="E127" t="str">
+        <v>Heartbreaker</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>20</v>
+      </c>
+      <c r="H127">
+        <v>44</v>
+      </c>
+      <c r="I127">
+        <v>11</v>
+      </c>
+      <c r="J127">
+        <v>51</v>
+      </c>
+      <c r="K127" t="str">
+        <v>Katrin Born</v>
+      </c>
+      <c r="L127" t="str">
+        <v>Katrin</v>
+      </c>
+      <c r="M127">
+        <v>35</v>
+      </c>
+      <c r="N127">
+        <v>9</v>
+      </c>
+      <c r="O127">
+        <v>4</v>
+      </c>
+      <c r="P127">
+        <v>15</v>
+      </c>
+      <c r="Q127" t="b">
+        <v>1</v>
+      </c>
+      <c r="R127">
+        <v>9</v>
+      </c>
+      <c r="S127">
+        <v>11</v>
+      </c>
+      <c r="T127" t="b">
+        <v>0</v>
+      </c>
+      <c r="U127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>14</v>
+      </c>
+      <c r="B128" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C128" t="str">
+        <v>Bosnia and Herzegovina</v>
+      </c>
+      <c r="D128" t="str">
+        <v>Seka Aleksic</v>
+      </c>
+      <c r="E128" t="str">
+        <v>Emotivno nedostupan</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>21</v>
+      </c>
+      <c r="H128">
+        <v>44</v>
+      </c>
+      <c r="I128">
+        <v>10</v>
+      </c>
+      <c r="J128">
+        <v>54</v>
+      </c>
+      <c r="K128" t="str">
+        <v>Giovanni Affronte</v>
+      </c>
+      <c r="L128" t="str">
+        <v>Giovanni</v>
+      </c>
+      <c r="M128">
+        <v>42</v>
+      </c>
+      <c r="N128">
+        <v>2</v>
+      </c>
+      <c r="O128">
+        <v>11</v>
+      </c>
+      <c r="P128">
+        <v>4</v>
+      </c>
+      <c r="Q128" t="b">
+        <v>1</v>
+      </c>
+      <c r="R128">
+        <v>7</v>
+      </c>
+      <c r="S128">
+        <v>10</v>
+      </c>
+      <c r="T128" t="b">
+        <v>0</v>
+      </c>
+      <c r="U128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>14</v>
+      </c>
+      <c r="B129" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C129" t="str">
+        <v>Malta</v>
+      </c>
+      <c r="D129" t="str">
+        <v>Maxine</v>
+      </c>
+      <c r="E129" t="str">
+        <v>Pull me closer</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>22</v>
+      </c>
+      <c r="H129">
+        <v>38</v>
+      </c>
+      <c r="I129">
+        <v>9</v>
+      </c>
+      <c r="J129">
+        <v>56</v>
+      </c>
+      <c r="K129" t="str">
+        <v>Stefan Schneider</v>
+      </c>
+      <c r="L129" t="str">
+        <v>Stefan Schneider</v>
+      </c>
+      <c r="M129">
+        <v>32</v>
+      </c>
+      <c r="N129">
+        <v>6</v>
+      </c>
+      <c r="O129">
+        <v>16</v>
+      </c>
+      <c r="P129">
+        <v>12</v>
+      </c>
+      <c r="Q129" t="b">
+        <v>1</v>
+      </c>
+      <c r="R129">
+        <v>10</v>
+      </c>
+      <c r="S129">
+        <v>14</v>
+      </c>
+      <c r="T129" t="b">
+        <v>0</v>
+      </c>
+      <c r="U129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>14</v>
+      </c>
+      <c r="B130" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C130" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="D130" t="str">
+        <v>Giant Rooks</v>
+      </c>
+      <c r="E130" t="str">
+        <v>Bedroom exile</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="G130">
+        <v>23</v>
+      </c>
+      <c r="H130">
+        <v>33</v>
+      </c>
+      <c r="I130">
+        <v>9</v>
+      </c>
+      <c r="J130">
+        <v>49</v>
+      </c>
+      <c r="K130" t="str">
+        <v>Lutz Bleckmann</v>
+      </c>
+      <c r="L130" t="str">
+        <v>Lutz</v>
+      </c>
+      <c r="M130">
+        <v>29</v>
+      </c>
+      <c r="N130">
+        <v>4</v>
+      </c>
+      <c r="O130">
+        <v>9</v>
+      </c>
+      <c r="P130">
+        <v>11</v>
+      </c>
+      <c r="Q130" t="b">
+        <v>1</v>
+      </c>
+      <c r="R130">
+        <v>9</v>
+      </c>
+      <c r="S130">
+        <v>11</v>
+      </c>
+      <c r="T130" t="b">
+        <v>0</v>
+      </c>
+      <c r="U130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>14</v>
+      </c>
+      <c r="B131" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C131" t="str">
+        <v>Morocco</v>
+      </c>
+      <c r="D131" t="str">
+        <v>ABIR</v>
+      </c>
+      <c r="E131" t="str">
+        <v>Yacht</v>
+      </c>
+      <c r="F131">
+        <v>2</v>
+      </c>
+      <c r="G131">
+        <v>24</v>
+      </c>
+      <c r="H131">
+        <v>24</v>
+      </c>
+      <c r="I131">
+        <v>11</v>
+      </c>
+      <c r="J131">
+        <v>47</v>
+      </c>
+      <c r="K131" t="str">
+        <v>Keiron Lynch</v>
+      </c>
+      <c r="L131" t="str">
+        <v>Keiron</v>
+      </c>
+      <c r="M131">
+        <v>22</v>
+      </c>
+      <c r="N131">
+        <v>2</v>
+      </c>
+      <c r="O131">
+        <v>8</v>
+      </c>
+      <c r="P131">
+        <v>19</v>
+      </c>
+      <c r="Q131" t="b">
+        <v>1</v>
+      </c>
+      <c r="R131">
+        <v>6</v>
+      </c>
+      <c r="S131">
+        <v>7</v>
+      </c>
+      <c r="T131" t="b">
+        <v>0</v>
+      </c>
+      <c r="U131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>14</v>
+      </c>
+      <c r="B132" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C132" t="str">
+        <v>Andorra</v>
+      </c>
+      <c r="D132" t="str">
+        <v>Manuel Carrasco</v>
+      </c>
+      <c r="E132" t="str">
+        <v>Hay que vivir el momento</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>25</v>
+      </c>
+      <c r="H132">
+        <v>23</v>
+      </c>
+      <c r="I132">
+        <v>7</v>
+      </c>
+      <c r="J132">
+        <v>64</v>
+      </c>
+      <c r="K132" t="str">
+        <v>Ricardo Gomes</v>
+      </c>
+      <c r="L132" t="str">
+        <v>Ricardo Gomes</v>
+      </c>
+      <c r="M132">
+        <v>20</v>
+      </c>
+      <c r="N132">
+        <v>3</v>
+      </c>
+      <c r="O132">
+        <v>2</v>
+      </c>
+      <c r="P132">
+        <v>24</v>
+      </c>
+      <c r="Q132" t="b">
+        <v>1</v>
+      </c>
+      <c r="R132">
+        <v>5</v>
+      </c>
+      <c r="S132">
+        <v>11</v>
+      </c>
+      <c r="T132" t="b">
+        <v>0</v>
+      </c>
+      <c r="U132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>14</v>
+      </c>
+      <c r="B133" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C133" t="str">
+        <v>Poland</v>
+      </c>
+      <c r="D133" t="str">
+        <v>Viki Gabor</v>
+      </c>
+      <c r="E133" t="str">
+        <v>Barbie</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133" t="str">
+        <v/>
+      </c>
+      <c r="H133" t="str">
+        <v/>
+      </c>
+      <c r="I133">
+        <v>13</v>
+      </c>
+      <c r="J133">
+        <v>46</v>
+      </c>
+      <c r="K133" t="str">
+        <v>Luke Woods</v>
+      </c>
+      <c r="L133" t="str">
+        <v>Luke</v>
+      </c>
+      <c r="M133" t="str">
+        <v/>
+      </c>
+      <c r="N133" t="str">
+        <v/>
+      </c>
+      <c r="O133">
+        <v>3</v>
+      </c>
+      <c r="P133" t="str">
+        <v/>
+      </c>
+      <c r="Q133" t="b">
+        <v>0</v>
+      </c>
+      <c r="R133" t="str">
+        <v/>
+      </c>
+      <c r="S133">
+        <v>8</v>
+      </c>
+      <c r="T133" t="b">
+        <v>0</v>
+      </c>
+      <c r="U133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>14</v>
+      </c>
+      <c r="B134" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C134" t="str">
+        <v>Montenegro</v>
+      </c>
+      <c r="D134" t="str">
+        <v>Emel</v>
+      </c>
+      <c r="E134" t="str">
+        <v>Gdje je</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134" t="str">
+        <v/>
+      </c>
+      <c r="H134" t="str">
+        <v/>
+      </c>
+      <c r="I134">
+        <v>14</v>
+      </c>
+      <c r="J134">
+        <v>45</v>
+      </c>
+      <c r="K134" t="str">
+        <v>Rodrigo Erazo</v>
+      </c>
+      <c r="L134" t="str">
+        <v>Rodrigo  Erazo</v>
+      </c>
+      <c r="M134" t="str">
+        <v/>
+      </c>
+      <c r="N134" t="str">
+        <v/>
+      </c>
+      <c r="O134">
+        <v>5</v>
+      </c>
+      <c r="P134" t="str">
+        <v/>
+      </c>
+      <c r="Q134" t="b">
+        <v>0</v>
+      </c>
+      <c r="R134" t="str">
+        <v/>
+      </c>
+      <c r="S134">
+        <v>7</v>
+      </c>
+      <c r="T134" t="b">
+        <v>0</v>
+      </c>
+      <c r="U134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>14</v>
+      </c>
+      <c r="B135" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C135" t="str">
+        <v>Georgia</v>
+      </c>
+      <c r="D135" t="str">
+        <v>Katie Melua</v>
+      </c>
+      <c r="E135" t="str">
+        <v>A love like that</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135" t="str">
+        <v/>
+      </c>
+      <c r="H135" t="str">
+        <v/>
+      </c>
+      <c r="I135">
+        <v>15</v>
+      </c>
+      <c r="J135">
+        <v>37</v>
+      </c>
+      <c r="K135" t="str">
+        <v>Richard Cox</v>
+      </c>
+      <c r="L135" t="str">
+        <v>Richard Cox</v>
+      </c>
+      <c r="M135" t="str">
+        <v/>
+      </c>
+      <c r="N135" t="str">
+        <v/>
+      </c>
+      <c r="O135">
+        <v>8</v>
+      </c>
+      <c r="P135" t="str">
+        <v/>
+      </c>
+      <c r="Q135" t="b">
+        <v>0</v>
+      </c>
+      <c r="R135" t="str">
+        <v/>
+      </c>
+      <c r="S135">
+        <v>6</v>
+      </c>
+      <c r="T135" t="b">
+        <v>0</v>
+      </c>
+      <c r="U135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>14</v>
+      </c>
+      <c r="B136" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C136" t="str">
+        <v>Ukraine</v>
+      </c>
+      <c r="D136" t="str">
+        <v>Ruma</v>
+      </c>
+      <c r="E136" t="str">
+        <v>Дотик</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136" t="str">
+        <v/>
+      </c>
+      <c r="H136" t="str">
+        <v/>
+      </c>
+      <c r="I136">
+        <v>16</v>
+      </c>
+      <c r="J136">
+        <v>31</v>
+      </c>
+      <c r="K136" t="str">
+        <v>??? Luís Coelho</v>
+      </c>
+      <c r="L136" t="str">
+        <v>Luís Coelho</v>
+      </c>
+      <c r="M136" t="str">
+        <v/>
+      </c>
+      <c r="N136" t="str">
+        <v/>
+      </c>
+      <c r="O136">
+        <v>14</v>
+      </c>
+      <c r="P136" t="str">
+        <v/>
+      </c>
+      <c r="Q136" t="b">
+        <v>0</v>
+      </c>
+      <c r="R136" t="str">
+        <v/>
+      </c>
+      <c r="S136">
+        <v>7</v>
+      </c>
+      <c r="T136" t="b">
+        <v>0</v>
+      </c>
+      <c r="U136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>14</v>
+      </c>
+      <c r="B137" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C137" t="str">
+        <v>Estonia</v>
+      </c>
+      <c r="D137" t="str">
+        <v>Liis Lemsalu</v>
+      </c>
+      <c r="E137" t="str">
+        <v>Kehakeel</v>
+      </c>
+      <c r="F137">
+        <v>2</v>
+      </c>
+      <c r="G137" t="str">
+        <v/>
+      </c>
+      <c r="H137" t="str">
+        <v/>
+      </c>
+      <c r="I137">
+        <v>13</v>
+      </c>
+      <c r="J137">
+        <v>40</v>
+      </c>
+      <c r="K137" t="str">
+        <v>Mathias Christiansson</v>
+      </c>
+      <c r="L137" t="str">
+        <v>Mathias</v>
+      </c>
+      <c r="M137" t="str">
+        <v/>
+      </c>
+      <c r="N137" t="str">
+        <v/>
+      </c>
+      <c r="O137">
+        <v>2</v>
+      </c>
+      <c r="P137" t="str">
+        <v/>
+      </c>
+      <c r="Q137" t="b">
+        <v>0</v>
+      </c>
+      <c r="R137" t="str">
+        <v/>
+      </c>
+      <c r="S137">
+        <v>8</v>
+      </c>
+      <c r="T137" t="b">
+        <v>0</v>
+      </c>
+      <c r="U137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>14</v>
+      </c>
+      <c r="B138" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C138" t="str">
+        <v>Romania</v>
+      </c>
+      <c r="D138" t="str">
+        <v>WRS</v>
+      </c>
+      <c r="E138" t="str">
+        <v>Dale</v>
+      </c>
+      <c r="F138">
+        <v>2</v>
+      </c>
+      <c r="G138" t="str">
+        <v/>
+      </c>
+      <c r="H138" t="str">
+        <v/>
+      </c>
+      <c r="I138">
+        <v>14</v>
+      </c>
+      <c r="J138">
+        <v>39</v>
+      </c>
+      <c r="K138" t="str">
+        <v>Edu Padrós Creus</v>
+      </c>
+      <c r="L138" t="str">
+        <v>Edu Padrós Creus</v>
+      </c>
+      <c r="M138" t="str">
+        <v/>
+      </c>
+      <c r="N138" t="str">
+        <v/>
+      </c>
+      <c r="O138">
+        <v>3</v>
+      </c>
+      <c r="P138" t="str">
+        <v/>
+      </c>
+      <c r="Q138" t="b">
+        <v>0</v>
+      </c>
+      <c r="R138" t="str">
+        <v/>
+      </c>
+      <c r="S138">
+        <v>7</v>
+      </c>
+      <c r="T138" t="b">
+        <v>0</v>
+      </c>
+      <c r="U138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>14</v>
+      </c>
+      <c r="B139" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C139" t="str">
+        <v>Moldova</v>
+      </c>
+      <c r="D139" t="str">
+        <v>Vanotek &amp; Eneli</v>
+      </c>
+      <c r="E139" t="str">
+        <v>Back to me</v>
+      </c>
+      <c r="F139">
+        <v>2</v>
+      </c>
+      <c r="G139" t="str">
+        <v/>
+      </c>
+      <c r="H139" t="str">
+        <v/>
+      </c>
+      <c r="I139">
+        <v>15</v>
+      </c>
+      <c r="J139">
+        <v>37</v>
+      </c>
+      <c r="K139" t="str">
+        <v>FabioMassimo Falchi</v>
+      </c>
+      <c r="L139" t="str">
+        <v>FabioMassimo</v>
+      </c>
+      <c r="M139" t="str">
+        <v/>
+      </c>
+      <c r="N139" t="str">
+        <v/>
+      </c>
+      <c r="O139">
+        <v>16</v>
+      </c>
+      <c r="P139" t="str">
+        <v/>
+      </c>
+      <c r="Q139" t="b">
+        <v>0</v>
+      </c>
+      <c r="R139" t="str">
+        <v/>
+      </c>
+      <c r="S139">
+        <v>7</v>
+      </c>
+      <c r="T139" t="b">
+        <v>0</v>
+      </c>
+      <c r="U139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>14</v>
+      </c>
+      <c r="B140" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C140" t="str">
+        <v>Azerbaijan</v>
+      </c>
+      <c r="D140" t="str">
+        <v>Röya &amp; Nicat Rəhimov</v>
+      </c>
+      <c r="E140" t="str">
+        <v>Dəli kimi</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+      <c r="G140" t="str">
+        <v/>
+      </c>
+      <c r="H140" t="str">
+        <v/>
+      </c>
+      <c r="I140">
+        <v>16</v>
+      </c>
+      <c r="J140">
+        <v>36</v>
+      </c>
+      <c r="K140" t="str">
+        <v>Nijat Badalov</v>
+      </c>
+      <c r="L140" t="str">
+        <v>Nijat</v>
+      </c>
+      <c r="M140" t="str">
+        <v/>
+      </c>
+      <c r="N140" t="str">
+        <v/>
+      </c>
+      <c r="O140">
+        <v>6</v>
+      </c>
+      <c r="P140" t="str">
+        <v/>
+      </c>
+      <c r="Q140" t="b">
+        <v>0</v>
+      </c>
+      <c r="R140" t="str">
+        <v/>
+      </c>
+      <c r="S140">
+        <v>6</v>
+      </c>
+      <c r="T140" t="b">
+        <v>0</v>
+      </c>
+      <c r="U140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>14</v>
+      </c>
+      <c r="B141" t="str">
+        <v>EMSC 2304</v>
+      </c>
+      <c r="C141" t="str">
+        <v>Greece</v>
+      </c>
+      <c r="D141" t="str">
+        <v>ZAF</v>
+      </c>
+      <c r="E141" t="str">
+        <v>Pes</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141" t="str">
+        <v/>
+      </c>
+      <c r="H141" t="str">
+        <v/>
+      </c>
+      <c r="I141">
+        <v>17</v>
+      </c>
+      <c r="J141">
+        <v>23</v>
+      </c>
+      <c r="K141" t="str">
         <v>??? Christoforos Andrianos</v>
       </c>
-      <c r="L35" t="str">
+      <c r="L141" t="str">
         <v>Christoforos Andrianos</v>
       </c>
-      <c r="M35" t="str">
-        <v/>
-      </c>
-      <c r="N35" t="str">
-        <v/>
-      </c>
-      <c r="O35">
+      <c r="M141" t="str">
+        <v/>
+      </c>
+      <c r="N141" t="str">
+        <v/>
+      </c>
+      <c r="O141">
         <v>11</v>
       </c>
-      <c r="P35" t="str">
-        <v/>
-      </c>
-      <c r="Q35" t="b">
-        <v>0</v>
-      </c>
-      <c r="R35" t="str">
-        <v/>
-      </c>
-      <c r="S35">
+      <c r="P141" t="str">
+        <v/>
+      </c>
+      <c r="Q141" t="b">
+        <v>0</v>
+      </c>
+      <c r="R141" t="str">
+        <v/>
+      </c>
+      <c r="S141">
         <v>6</v>
+      </c>
+      <c r="T141" t="b">
+        <v>0</v>
+      </c>
+      <c r="U141" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:U35"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W141"/>
   </ignoredErrors>
 </worksheet>
 </file>